--- a/TPatches/TPatches.xlsx
+++ b/TPatches/TPatches.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="736">
   <si>
     <t xml:space="preserve">Patch name</t>
   </si>
@@ -182,7 +182,49 @@
     <t xml:space="preserve">fixes numerous typos in H.C.Animals</t>
   </si>
   <si>
-    <t xml:space="preserve">Vanilla Expanded</t>
+    <t xml:space="preserve">Vanilla Animals Expanded — Arid Shrubland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Animals Expanded — Cats and Dogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Animals Expanded — Desert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Animals Expanded — Extreme Desert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Animals Expanded — Tundra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Animals Expanded — Boreal Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Animals Expanded — Tropical Rainforest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Animals Expanded — Tropical Swamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Animals Expanded — Ice Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Animals Expanded — Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Animals Expanded — Temperate Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Animals Expanded — Endangered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Animals Expanded — Caves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Factions Expanded - Insectoids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Factions Expanded - Vikings</t>
   </si>
   <si>
     <t xml:space="preserve">Regrowth</t>
@@ -305,9 +347,54 @@
     <t xml:space="preserve">MorrowRim</t>
   </si>
   <si>
+    <t xml:space="preserve">Elephants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheetah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abyssinian cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desert tortoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megawolverine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arctic coyote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alligator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penguin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boombat</t>
   </si>
   <si>
+    <t xml:space="preserve">Badger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">African wild dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blind Salamander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boomtick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooly cow</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arctic drak</t>
   </si>
   <si>
@@ -425,9 +512,51 @@
     <t xml:space="preserve">Cave Troll</t>
   </si>
   <si>
+    <t xml:space="preserve">Coyote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beagle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gila monster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megascorpion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black bear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaguar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anaconda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kangaroo</t>
   </si>
   <si>
+    <t xml:space="preserve">Beaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black rhinoceros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cave Bear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuterpillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolfhound</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dodo</t>
   </si>
   <si>
@@ -440,9 +569,6 @@
     <t xml:space="preserve">Eagle owl</t>
   </si>
   <si>
-    <t xml:space="preserve">African wild dog</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ankole-watusi</t>
   </si>
   <si>
@@ -452,9 +578,6 @@
     <t xml:space="preserve">Anacondas</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaguar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Giraffe</t>
   </si>
   <si>
@@ -533,9 +656,45 @@
     <t xml:space="preserve">Ash hopper</t>
   </si>
   <si>
+    <t xml:space="preserve">Crocodile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bengal cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rattlesnake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musk ox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian elephant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walrus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Koala</t>
   </si>
   <si>
+    <t xml:space="preserve">Hedgehog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black-footed ferr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cave Crawler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigascorpion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Protoceratidae</t>
   </si>
   <si>
@@ -560,12 +719,6 @@
     <t xml:space="preserve">Bullfrog</t>
   </si>
   <si>
-    <t xml:space="preserve">Cheetah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alligator</t>
-  </si>
-  <si>
     <t xml:space="preserve">Macaw</t>
   </si>
   <si>
@@ -578,9 +731,6 @@
     <t xml:space="preserve">Bardelot</t>
   </si>
   <si>
-    <t xml:space="preserve">Penguin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Angel moth</t>
   </si>
   <si>
@@ -641,15 +791,33 @@
     <t xml:space="preserve">Ash panther</t>
   </si>
   <si>
+    <t xml:space="preserve">British shorthair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcupine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandrill</t>
+  </si>
+  <si>
     <t xml:space="preserve">Platypus</t>
   </si>
   <si>
+    <t xml:space="preserve">Red panda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonobo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyrm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigawig</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wooly mammonth</t>
   </si>
   <si>
-    <t xml:space="preserve">Hedgehog</t>
-  </si>
-  <si>
     <t xml:space="preserve">Snow leopard</t>
   </si>
   <si>
@@ -668,9 +836,6 @@
     <t xml:space="preserve">Galapagostortoise</t>
   </si>
   <si>
-    <t xml:space="preserve">Hyena</t>
-  </si>
-  <si>
     <t xml:space="preserve">Crocodale</t>
   </si>
   <si>
@@ -683,9 +848,6 @@
     <t xml:space="preserve">Orchid Okapi</t>
   </si>
   <si>
-    <t xml:space="preserve">Black bear</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kiwi</t>
   </si>
   <si>
@@ -743,7 +905,25 @@
     <t xml:space="preserve">Bantam guar</t>
   </si>
   <si>
-    <t xml:space="preserve">Wooly cow</t>
+    <t xml:space="preserve">Hippopotamus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild goose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant panda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insectoid Hulk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megacricket</t>
   </si>
   <si>
     <t xml:space="preserve">Wooly rhinoceros</t>
@@ -833,7 +1013,19 @@
     <t xml:space="preserve">Clannfear</t>
   </si>
   <si>
-    <t xml:space="preserve">Badger</t>
+    <t xml:space="preserve">Widebeest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corgi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant pangolin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Spider Hatchling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milkbeetle</t>
   </si>
   <si>
     <t xml:space="preserve">Deathclaw</t>
@@ -908,15 +1100,21 @@
     <t xml:space="preserve">Cliff racer</t>
   </si>
   <si>
-    <t xml:space="preserve">Beaver</t>
+    <t xml:space="preserve">Zebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French bulldog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monstrosity</t>
   </si>
   <si>
     <t xml:space="preserve">Mutated beaver</t>
   </si>
   <si>
-    <t xml:space="preserve">Red panda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hariana cow</t>
   </si>
   <si>
@@ -965,12 +1163,21 @@
     <t xml:space="preserve">Daedroth</t>
   </si>
   <si>
+    <t xml:space="preserve">German shepherd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quagga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancient Giant Spider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princess</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mutated squirrel</t>
   </si>
   <si>
-    <t xml:space="preserve">Black rhinoceros</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hereford cow</t>
   </si>
   <si>
@@ -1019,6 +1226,15 @@
     <t xml:space="preserve">Durzog</t>
   </si>
   <si>
+    <t xml:space="preserve">Great dane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockhopper penguin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royal larva</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rimguai</t>
   </si>
   <si>
@@ -1070,7 +1286,13 @@
     <t xml:space="preserve">Guar</t>
   </si>
   <si>
-    <t xml:space="preserve">Wild goose</t>
+    <t xml:space="preserve">Maine coon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasmanian devil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royal maggot</t>
   </si>
   <si>
     <t xml:space="preserve">Rimstag</t>
@@ -1121,6 +1343,15 @@
     <t xml:space="preserve">Albino guar</t>
   </si>
   <si>
+    <t xml:space="preserve">Munchkin cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thylacine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiderweaver</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chipmunk</t>
   </si>
   <si>
@@ -1130,9 +1361,6 @@
     <t xml:space="preserve">Hermit Crab</t>
   </si>
   <si>
-    <t xml:space="preserve">Mandrill</t>
-  </si>
-  <si>
     <t xml:space="preserve">Atispec (larva)</t>
   </si>
   <si>
@@ -1160,7 +1388,10 @@
     <t xml:space="preserve">Tiger guar</t>
   </si>
   <si>
-    <t xml:space="preserve">Seal</t>
+    <t xml:space="preserve">Norwegian forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titanbeetle</t>
   </si>
   <si>
     <t xml:space="preserve">Dire wolf</t>
@@ -1193,7 +1424,10 @@
     <t xml:space="preserve">Hunger</t>
   </si>
   <si>
-    <t xml:space="preserve">Walrus</t>
+    <t xml:space="preserve">Persian cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vat-grown gigalocust</t>
   </si>
   <si>
     <t xml:space="preserve">Domestic goose</t>
@@ -1229,6 +1463,12 @@
     <t xml:space="preserve">Kwama forager</t>
   </si>
   <si>
+    <t xml:space="preserve">Poodle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vat-grown megapede</t>
+  </si>
+  <si>
     <t xml:space="preserve">Domestic rabbit</t>
   </si>
   <si>
@@ -1262,7 +1502,10 @@
     <t xml:space="preserve">Kwama scrib</t>
   </si>
   <si>
-    <t xml:space="preserve">Anaconda</t>
+    <t xml:space="preserve">Pug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vat-grown megascarab</t>
   </si>
   <si>
     <t xml:space="preserve">Duck</t>
@@ -1298,7 +1541,10 @@
     <t xml:space="preserve">Kagouti</t>
   </si>
   <si>
-    <t xml:space="preserve">Indian elephant</t>
+    <t xml:space="preserve">Rottweiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vat-grown megaspider</t>
   </si>
   <si>
     <t xml:space="preserve">Duck-billed platypus</t>
@@ -1331,7 +1577,10 @@
     <t xml:space="preserve">Netch</t>
   </si>
   <si>
-    <t xml:space="preserve">Camel</t>
+    <t xml:space="preserve">Shih-tzu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vat-grown spelopede</t>
   </si>
   <si>
     <t xml:space="preserve">Ermine</t>
@@ -1364,7 +1613,10 @@
     <t xml:space="preserve">Retching netch</t>
   </si>
   <si>
-    <t xml:space="preserve">Megascorpion</t>
+    <t xml:space="preserve">Siamese cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wargling</t>
   </si>
   <si>
     <t xml:space="preserve">Bighhorn sheep</t>
@@ -1394,7 +1646,10 @@
     <t xml:space="preserve">Nix hound</t>
   </si>
   <si>
-    <t xml:space="preserve">Rattlesnake</t>
+    <t xml:space="preserve">Somali cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worker ant</t>
   </si>
   <si>
     <t xml:space="preserve">Fisher</t>
@@ -1406,9 +1661,6 @@
     <t xml:space="preserve">Omegadodo</t>
   </si>
   <si>
-    <t xml:space="preserve">Zebra</t>
-  </si>
-  <si>
     <t xml:space="preserve">Blood shrimp</t>
   </si>
   <si>
@@ -1427,7 +1679,7 @@
     <t xml:space="preserve">Nix ox</t>
   </si>
   <si>
-    <t xml:space="preserve">Arctic coyote</t>
+    <t xml:space="preserve">Sphynx cat</t>
   </si>
   <si>
     <t xml:space="preserve">Dorset sheep</t>
@@ -1454,6 +1706,9 @@
     <t xml:space="preserve">Ogrim</t>
   </si>
   <si>
+    <t xml:space="preserve">Welsh terrier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gecko</t>
   </si>
   <si>
@@ -1502,9 +1757,6 @@
     <t xml:space="preserve">Scuttler</t>
   </si>
   <si>
-    <t xml:space="preserve">Desert tortoise</t>
-  </si>
-  <si>
     <t xml:space="preserve">Goose</t>
   </si>
   <si>
@@ -1532,9 +1784,6 @@
     <t xml:space="preserve">Shalk</t>
   </si>
   <si>
-    <t xml:space="preserve">Gila monster</t>
-  </si>
-  <si>
     <t xml:space="preserve">Great bustard</t>
   </si>
   <si>
@@ -1628,12 +1877,6 @@
     <t xml:space="preserve">Wormmouth</t>
   </si>
   <si>
-    <t xml:space="preserve">Coyote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hippopotamus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Water deer</t>
   </si>
   <si>
@@ -1649,9 +1892,6 @@
     <t xml:space="preserve">Josephoartigasia</t>
   </si>
   <si>
-    <t xml:space="preserve">Crocodile</t>
-  </si>
-  <si>
     <t xml:space="preserve">Honey badger</t>
   </si>
   <si>
@@ -1706,9 +1946,6 @@
     <t xml:space="preserve">Zygolophodon</t>
   </si>
   <si>
-    <t xml:space="preserve">Widebeest</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gerbil</t>
   </si>
   <si>
@@ -1733,9 +1970,6 @@
     <t xml:space="preserve">Purussaurus</t>
   </si>
   <si>
-    <t xml:space="preserve">Megawolverine</t>
-  </si>
-  <si>
     <t xml:space="preserve">Copperhead</t>
   </si>
   <si>
@@ -1745,9 +1979,6 @@
     <t xml:space="preserve">Uintatherium</t>
   </si>
   <si>
-    <t xml:space="preserve">Moose</t>
-  </si>
-  <si>
     <t xml:space="preserve">Llama</t>
   </si>
   <si>
@@ -1760,9 +1991,6 @@
     <t xml:space="preserve">Pulmonoscorpius</t>
   </si>
   <si>
-    <t xml:space="preserve">Musk ox</t>
-  </si>
-  <si>
     <t xml:space="preserve">Majorera billy goat</t>
   </si>
   <si>
@@ -1775,9 +2003,6 @@
     <t xml:space="preserve">Dinopithecus</t>
   </si>
   <si>
-    <t xml:space="preserve">Porcupine</t>
-  </si>
-  <si>
     <t xml:space="preserve">Megabadger</t>
   </si>
   <si>
@@ -1790,9 +2015,6 @@
     <t xml:space="preserve">Castoroides</t>
   </si>
   <si>
-    <t xml:space="preserve">Gorilla</t>
-  </si>
-  <si>
     <t xml:space="preserve">Megaferret</t>
   </si>
   <si>
@@ -1811,12 +2033,6 @@
     <t xml:space="preserve">Feralisk</t>
   </si>
   <si>
-    <t xml:space="preserve">Lemur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munchkin cat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scarlet kingsnake</t>
   </si>
   <si>
@@ -1829,9 +2045,6 @@
     <t xml:space="preserve">Flamingo phoenix</t>
   </si>
   <si>
-    <t xml:space="preserve">Tapir</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yellow viper</t>
   </si>
   <si>
@@ -1847,72 +2060,42 @@
     <t xml:space="preserve">Frostmite</t>
   </si>
   <si>
-    <t xml:space="preserve">Abyssinian cat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fungal husk</t>
   </si>
   <si>
-    <t xml:space="preserve">Beagle</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gallatross</t>
   </si>
   <si>
-    <t xml:space="preserve">Bengal cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">British shorthair</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quail</t>
   </si>
   <si>
     <t xml:space="preserve">Great devourer</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grey-coated mouflon</t>
   </si>
   <si>
-    <t xml:space="preserve">Corgi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Groundrunner</t>
   </si>
   <si>
-    <t xml:space="preserve">French bulldog</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sheep</t>
   </si>
   <si>
     <t xml:space="preserve">Helixien</t>
   </si>
   <si>
-    <t xml:space="preserve">German shepherd</t>
-  </si>
-  <si>
     <t xml:space="preserve">Silkie</t>
   </si>
   <si>
     <t xml:space="preserve">Ironhusk beetle</t>
   </si>
   <si>
-    <t xml:space="preserve">Great dane</t>
-  </si>
-  <si>
     <t xml:space="preserve">Silkspider</t>
   </si>
   <si>
     <t xml:space="preserve">Lockjaw</t>
   </si>
   <si>
-    <t xml:space="preserve">Maine coon</t>
-  </si>
-  <si>
     <t xml:space="preserve">Luciferbug</t>
   </si>
   <si>
@@ -1922,75 +2105,45 @@
     <t xml:space="preserve">Mammoth worm</t>
   </si>
   <si>
-    <t xml:space="preserve">Norwegian forest</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mantrap</t>
   </si>
   <si>
-    <t xml:space="preserve">Persian cat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thorny devil</t>
   </si>
   <si>
     <t xml:space="preserve">Mature fleshbeast</t>
   </si>
   <si>
-    <t xml:space="preserve">Poodle</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meadow ave</t>
   </si>
   <si>
-    <t xml:space="preserve">Pug</t>
-  </si>
-  <si>
     <t xml:space="preserve">Megalouse</t>
   </si>
   <si>
-    <t xml:space="preserve">Rottweiler</t>
-  </si>
-  <si>
     <t xml:space="preserve">Woolyhorse</t>
   </si>
   <si>
     <t xml:space="preserve">Mime</t>
   </si>
   <si>
-    <t xml:space="preserve">Shih-tzu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wooly rhino</t>
   </si>
   <si>
     <t xml:space="preserve">Needlepost</t>
   </si>
   <si>
-    <t xml:space="preserve">Siamese cat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Xenguana</t>
   </si>
   <si>
     <t xml:space="preserve">Needleroll</t>
   </si>
   <si>
-    <t xml:space="preserve">Somali cat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Night ave</t>
   </si>
   <si>
-    <t xml:space="preserve">Sphynx cat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nightling</t>
   </si>
   <si>
-    <t xml:space="preserve">Welsh terrier</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ocular jelly</t>
   </si>
   <si>
@@ -2000,187 +2153,82 @@
     <t xml:space="preserve">Pebblemit</t>
   </si>
   <si>
-    <t xml:space="preserve">Black-footed ferr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pedigreed raptor</t>
   </si>
   <si>
-    <t xml:space="preserve">Bonobo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Phoenix owlcat</t>
   </si>
   <si>
-    <t xml:space="preserve">Giant panda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plasmorph</t>
   </si>
   <si>
-    <t xml:space="preserve">Giant pangolin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Radyak</t>
   </si>
   <si>
-    <t xml:space="preserve">Moa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Raptor shrimp</t>
   </si>
   <si>
-    <t xml:space="preserve">Quagga</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ravager</t>
   </si>
   <si>
-    <t xml:space="preserve">Rockhopper penguin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ray-hound</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasmanian devil</t>
-  </si>
-  <si>
     <t xml:space="preserve">Razorjack</t>
   </si>
   <si>
-    <t xml:space="preserve">Thylacine</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ripper hound</t>
   </si>
   <si>
-    <t xml:space="preserve">Boomtick</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rough-plated monitor</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuterpillar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Royal ave</t>
   </si>
   <si>
-    <t xml:space="preserve">Gigascorpion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sand lion</t>
   </si>
   <si>
-    <t xml:space="preserve">Gigawig</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sand prowler</t>
   </si>
   <si>
-    <t xml:space="preserve">Megacricket</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sand squid</t>
   </si>
   <si>
-    <t xml:space="preserve">Milkbeetle</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shock goat</t>
   </si>
   <si>
-    <t xml:space="preserve">Monstrosity</t>
-  </si>
-  <si>
     <t xml:space="preserve">Skiphound</t>
   </si>
   <si>
-    <t xml:space="preserve">Princess</t>
-  </si>
-  <si>
     <t xml:space="preserve">Slurrypede</t>
   </si>
   <si>
-    <t xml:space="preserve">Royal larva</t>
-  </si>
-  <si>
     <t xml:space="preserve">Swarmling</t>
   </si>
   <si>
-    <t xml:space="preserve">Royal maggot</t>
-  </si>
-  <si>
     <t xml:space="preserve">Teratogenic originator</t>
   </si>
   <si>
-    <t xml:space="preserve">Spiderweaver</t>
-  </si>
-  <si>
     <t xml:space="preserve">Terramorph</t>
   </si>
   <si>
-    <t xml:space="preserve">Titanbeetle</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tetraslug</t>
   </si>
   <si>
-    <t xml:space="preserve">Vat-grown gigalocust</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thermadon</t>
   </si>
   <si>
-    <t xml:space="preserve">Vat-grown megapede</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thunderbeast</t>
   </si>
   <si>
-    <t xml:space="preserve">Vat-grown megascarab</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wayward mobile assembler</t>
   </si>
   <si>
-    <t xml:space="preserve">Vat-grown megaspider</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wildpawn</t>
   </si>
   <si>
-    <t xml:space="preserve">Vat-grown spelopede</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wildpod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wargling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worker ant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blind Salamander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cave Bear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cave Crawler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyrm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insectoid Hulk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giant Spider Hatchling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancient Giant Spider</t>
   </si>
 </sst>
 </file>
@@ -2190,7 +2238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2269,6 +2317,21 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2343,7 +2406,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2424,20 +2487,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2552,7 +2607,7 @@
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.43"/>
@@ -30726,2404 +30781,2556 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR103"/>
+  <dimension ref="A1:BG103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="18.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="19" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="19" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="29.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="19" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="19" width="20.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="19" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="19" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="20" width="28.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="20" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="19" width="28.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="19" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="19" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="19" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="19" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="19" width="31.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="19" width="20.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="28" min="26" style="19" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="29" style="20" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="20" width="20.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="36" min="31" style="20" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="37" style="19" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="19" width="18.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="19" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="19" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="19" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="19" width="29.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="21" style="19" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="19" width="20.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="23" style="19" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="19" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="28.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="19" width="28.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="19" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="19" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="35" style="19" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="19" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="19" width="31.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="19" width="20.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="42" min="40" style="19" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="20.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="51" style="19" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="21" customFormat="true" ht="43.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="22" t="s">
+      <c r="W1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="W1" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z1" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA1" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB1" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC1" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD1" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE1" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF1" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG1" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH1" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI1" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AK1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AL1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AM1" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="AN1" s="22" t="s">
+      <c r="AN1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="AO1" s="23" t="s">
+      <c r="AO1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="AP1" s="22" t="s">
+      <c r="AP1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AQ1" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AR1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS1" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW1" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX1" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY1" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE1" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="BF1" s="20" t="s">
         <v>27</v>
       </c>
+      <c r="BG1" s="20" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="24" t="s">
+      <c r="A2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE2" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF2" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH2" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ2" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK2" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL2" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM2" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN2" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP2" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT2" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU2" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV2" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW2" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY2" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ2" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="BB2" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC2" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="P2" s="20" t="s">
+      <c r="BD2" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="BE2" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF2" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF3" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG3" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH3" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI3" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ3" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK3" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL3" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM3" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN3" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP3" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ3" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR3" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS3" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT3" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV3" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="AW3" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY3" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ3" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="BB3" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="BD3" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="BE3" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="U4" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="W4" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="X4" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y4" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q2" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="X2" s="19" t="s">
+      <c r="Z4" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="AA4" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE4" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF4" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="Z2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB2" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF2" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG2" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH2" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI2" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK2" s="19" t="s">
+      <c r="AG4" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH4" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI4" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ4" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="AK4" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL4" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM4" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN4" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP4" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="AQ4" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="AR4" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS4" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="AT4" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="AV4" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW4" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY4" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="AZ4" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="BB4" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD4" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="BE4" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="W5" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA5" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE5" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF5" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="AG5" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH5" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI5" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="AJ5" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK5" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL5" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM5" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN5" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP5" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ5" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="AR5" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS5" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV5" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="AW5" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="AY5" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="AZ5" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="BB5" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="BD5" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="BE5" s="19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="V6" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="X6" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y6" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z6" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA6" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE6" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG6" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH6" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI6" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="AJ6" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="AK6" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="AL6" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM6" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="AN6" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="AP6" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="AQ6" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="AR6" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="AS6" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="AV6" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="AW6" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="AY6" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="BB6" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="BD6" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="BE6" s="19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="U7" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="X7" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y7" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA7" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD7" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE7" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG7" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="AH7" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI7" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ7" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK7" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="AL7" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="AN7" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="AP7" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ7" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="AR7" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="AS7" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="AV7" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="AW7" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AY7" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="BE7" s="19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="U8" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="V8" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD8" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="AG8" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH8" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="AI8" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="AJ8" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK8" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL8" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN8" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP8" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ8" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="AR8" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW8" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="AY8" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="BE8" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="U9" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="V9" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD9" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE9" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG9" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH9" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI9" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="AJ9" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="AK9" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="AL9" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="AP9" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="AQ9" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="AR9" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="AW9" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="AY9" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="BE9" s="19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="U10" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC10" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="AD10" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE10" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG10" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="AH10" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="AI10" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ10" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="AK10" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="AL10" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="AQ10" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="AR10" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="AW10" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="AY10" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="BE10" s="19" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="U11" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="V11" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC11" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD11" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE11" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="AG11" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH11" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="AI11" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="AJ11" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="AK11" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="AL11" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="AQ11" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="AR11" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="AW11" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="AY11" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="BE11" s="19" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="U12" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC12" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="AE12" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG12" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="AH12" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="AI12" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="AJ12" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="AK12" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="AQ12" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="AR12" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="AW12" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE12" s="19" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="U13" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="V13" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC13" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE13" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="AG13" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="AH13" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="AI13" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="AJ13" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="AK13" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="AW13" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="BE13" s="19" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="U14" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE14" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="AG14" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="AH14" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="AI14" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="AJ14" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="AK14" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="AW14" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="BE14" s="19" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="U15" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="V15" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="AE15" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="AG15" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="AH15" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="AI15" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="AJ15" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="AK15" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="AW15" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="BE15" s="19" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="U16" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="V16" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE16" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="AG16" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="AH16" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="AI16" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="AJ16" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="AK16" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="AW16" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="BE16" s="19" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="U17" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="V17" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC17" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="AE17" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="AG17" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="AH17" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="AI17" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="AJ17" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="AK17" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="BE17" s="19" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="AC18" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="AE18" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="AG18" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="AH18" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="AI18" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="AJ18" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="AK18" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="BE18" s="19" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="U19" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="AL2" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM2" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN2" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP2" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ2" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR2" s="19" t="s">
+      <c r="V19" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="AC19" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="AE19" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="AG19" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="AH19" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="AI19" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="AJ19" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="AK19" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="BE19" s="19" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="U20" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="V20" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="AC20" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AE20" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="AG20" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH20" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="AI20" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="AJ20" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="AK20" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="BE20" s="19" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="AC21" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG21" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="AH21" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="AI21" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="AJ21" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="AK21" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="BE21" s="19" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="U22" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="V22" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC22" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG22" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="AH22" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="AI22" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="AJ22" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="AK22" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="BE22" s="19" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+      <c r="U23" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="V23" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="AC23" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="AG23" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="AH23" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="AI23" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="AJ23" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK23" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="BE23" s="19" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="U24" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="V24" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="AC24" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="AG24" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="AH24" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="AI24" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="AJ24" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="AK24" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="BE24" s="19" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="U25" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="V25" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="AC25" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="AG25" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="AH25" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="AI25" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="AJ25" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="AK25" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="BE25" s="19" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0"/>
+      <c r="U26" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="V26" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="AC26" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="AG26" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="AH26" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="AI26" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="AK26" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="BE26" s="19" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0"/>
+      <c r="U27" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="V27" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="AC27" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="AG27" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="AH27" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="AI27" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="AK27" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="BE27" s="19" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="U28" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="V28" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="AC28" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="AG28" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="AH28" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="AI28" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="BE28" s="19" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="U29" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="V29" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="AC29" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG29" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="AH29" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="AI29" s="19" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="U30" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="V30" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="AC30" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="AG30" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="AH30" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="AI30" s="19" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="U31" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="V31" s="19" t="s">
+        <v>630</v>
+      </c>
+      <c r="AC31" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="AG31" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="AH31" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="AI31" s="19" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="U32" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="V32" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="AC32" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="AG32" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="AH32" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="AI32" s="19" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="U33" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="V33" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="AC33" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="AG33" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="AH33" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI33" s="19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="U34" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="V34" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="AG34" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="AI34" s="19" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
+      <c r="U35" s="19" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="V35" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="AG35" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="AI35" s="19" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
+      <c r="U36" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="V36" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="AG36" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="AI36" s="19" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
+      <c r="U37" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="V37" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="AG37" s="19" t="s">
+        <v>658</v>
+      </c>
+      <c r="AI37" s="19" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0"/>
+      <c r="U38" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="V38" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="AG38" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="AI38" s="19" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0"/>
+      <c r="U39" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="V39" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="AG39" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="AI39" s="19" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+      <c r="U40" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="V40" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="AG40" s="19" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0"/>
+      <c r="U41" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="V41" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="AG41" s="19" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0"/>
+      <c r="U42" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="V42" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="AG42" s="19" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0"/>
+      <c r="U43" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="V3" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="W3" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y3" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB3" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC3" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD3" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE3" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF3" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH3" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI3" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK3" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL3" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="AN3" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP3" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ3" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="V43" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="AG43" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0"/>
+      <c r="U44" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="V44" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="AG44" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0"/>
+      <c r="U45" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG45" s="19" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0"/>
+      <c r="U46" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG46" s="19" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0"/>
+      <c r="U47" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG47" s="19" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0"/>
+      <c r="U48" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="AG48" s="19" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0"/>
+      <c r="U49" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG49" s="19" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
+      <c r="U50" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="T4" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="U4" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="V4" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="W4" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="X4" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y4" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z4" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB4" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC4" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD4" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE4" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF4" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH4" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI4" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="AK4" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL4" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN4" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="AP4" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="AQ4" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="O5" s="20" t="s">
+      <c r="AG50" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0"/>
+      <c r="U51" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG51" s="19" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+      <c r="U52" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="AG52" s="19" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0"/>
+      <c r="U53" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="AG53" s="19" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0"/>
+      <c r="U54" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG54" s="19" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0"/>
+      <c r="U55" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="AG55" s="19" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0"/>
+      <c r="U56" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG56" s="19" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0"/>
+      <c r="U57" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG57" s="19" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0"/>
+      <c r="U58" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="AG58" s="19" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0"/>
+      <c r="U59" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="P5" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="U5" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="V5" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="W5" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y5" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z5" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB5" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC5" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD5" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE5" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AH5" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI5" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="AK5" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AL5" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="AN5" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="AP5" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="AQ5" s="19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="U6" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="V6" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="W6" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y6" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z6" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB6" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC6" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD6" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE6" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH6" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="AI6" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="AK6" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="AN6" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="AP6" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="AQ6" s="19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="O7" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="P7" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="T7" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="U7" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="V7" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="W7" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="X7" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z7" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="AB7" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC7" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD7" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE7" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="AH7" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="AI7" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="AK7" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="AQ7" s="19" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="O8" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="T8" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="V8" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="W8" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="X8" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z8" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB8" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="AC8" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="AD8" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI8" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="AK8" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="AQ8" s="19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="U9" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="W9" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="AB9" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC9" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD9" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="AI9" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="AK9" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="AQ9" s="19" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="S10" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="T10" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="U10" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="V10" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="W10" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="X10" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="AC10" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="AD10" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="AI10" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="AK10" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="AQ10" s="19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="S11" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="T11" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="U11" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="V11" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="W11" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="X11" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="AC11" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="AD11" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="AI11" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="AK11" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="AQ11" s="19" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="S12" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="V12" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="W12" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC12" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="AD12" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="AI12" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="AQ12" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q13" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="S13" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="T13" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="U13" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="V13" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="W13" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="AI13" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="AQ13" s="19" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="O14" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="S14" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="T14" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="U14" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="V14" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="W14" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="AI14" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="AQ14" s="19" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="S15" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="T15" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="U15" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="V15" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="W15" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="AI15" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="AQ15" s="19" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="O16" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="S16" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="T16" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="U16" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="V16" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="W16" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="AI16" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="AQ16" s="19" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="O17" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="S17" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="T17" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="U17" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="V17" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="W17" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="AQ17" s="19" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="O18" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q18" s="19" t="s">
-        <v>440</v>
-      </c>
-      <c r="S18" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="T18" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="U18" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="V18" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="W18" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="AQ18" s="19" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="S19" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="T19" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="U19" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="V19" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="W19" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="AQ19" s="19" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q20" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="S20" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="T20" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="U20" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="V20" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="W20" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="AQ20" s="19" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
-        <v>468</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="O21" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="S21" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="T21" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="U21" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="V21" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="W21" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="AQ21" s="19" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="O22" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="S22" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="T22" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="U22" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="V22" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="W22" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="AQ22" s="19" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="O23" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="S23" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="T23" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="U23" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="V23" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="W23" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="AQ23" s="19" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="O24" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="S24" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="T24" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="U24" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="V24" s="19" t="s">
-        <v>500</v>
-      </c>
-      <c r="W24" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="AQ24" s="19" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="s">
-        <v>503</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="O25" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="S25" s="19" t="s">
-        <v>507</v>
-      </c>
-      <c r="T25" s="19" t="s">
-        <v>508</v>
-      </c>
-      <c r="U25" s="19" t="s">
-        <v>509</v>
-      </c>
-      <c r="V25" s="19" t="s">
-        <v>510</v>
-      </c>
-      <c r="W25" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="AQ25" s="19" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="O26" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="S26" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="T26" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="U26" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="W26" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="AQ26" s="19" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>522</v>
-      </c>
-      <c r="O27" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="S27" s="19" t="s">
-        <v>524</v>
-      </c>
-      <c r="T27" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="U27" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="W27" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="AQ27" s="19" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>529</v>
-      </c>
-      <c r="O28" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="S28" s="19" t="s">
-        <v>531</v>
-      </c>
-      <c r="T28" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="U28" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="AQ28" s="19" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>536</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>537</v>
-      </c>
-      <c r="O29" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="S29" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="T29" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="U29" s="19" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="s">
-        <v>542</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>543</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>544</v>
-      </c>
-      <c r="O30" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="S30" s="19" t="s">
-        <v>546</v>
-      </c>
-      <c r="T30" s="19" t="s">
-        <v>547</v>
-      </c>
-      <c r="U30" s="19" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="O31" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="S31" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="T31" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="U31" s="19" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
-        <v>536</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="O32" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="S32" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="T32" s="19" t="s">
-        <v>559</v>
-      </c>
-      <c r="U32" s="19" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>562</v>
-      </c>
-      <c r="O33" s="20" t="s">
-        <v>563</v>
-      </c>
-      <c r="S33" s="19" t="s">
-        <v>564</v>
-      </c>
-      <c r="T33" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="U33" s="19" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="S34" s="19" t="s">
-        <v>568</v>
-      </c>
-      <c r="U34" s="19" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
-        <v>570</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>571</v>
-      </c>
-      <c r="S35" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="U35" s="19" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="s">
-        <v>574</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="S36" s="19" t="s">
-        <v>577</v>
-      </c>
-      <c r="U36" s="19" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24" t="s">
-        <v>579</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>580</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>581</v>
-      </c>
-      <c r="S37" s="19" t="s">
-        <v>582</v>
-      </c>
-      <c r="U37" s="19" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24" t="s">
-        <v>584</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>585</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>586</v>
-      </c>
-      <c r="S38" s="19" t="s">
-        <v>587</v>
-      </c>
-      <c r="U38" s="19" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="24" t="s">
-        <v>589</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>590</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="S39" s="19" t="s">
-        <v>592</v>
-      </c>
-      <c r="U39" s="19" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="S40" s="19" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="24" t="s">
-        <v>596</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>597</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>598</v>
-      </c>
-      <c r="S41" s="19" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>600</v>
-      </c>
-      <c r="S42" s="19" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="S43" s="19" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>605</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>606</v>
-      </c>
-      <c r="S44" s="19" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="24" t="s">
-        <v>608</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="S45" s="19" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>584</v>
-      </c>
-      <c r="S46" s="19" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24" t="s">
-        <v>612</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="S47" s="19" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="24" t="s">
-        <v>613</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>614</v>
-      </c>
-      <c r="S48" s="19" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24" t="s">
-        <v>616</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="S49" s="19" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="24" t="s">
-        <v>618</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="S50" s="19" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="24" t="s">
-        <v>620</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>621</v>
-      </c>
-      <c r="S51" s="19" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>624</v>
-      </c>
-      <c r="S52" s="19" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24" t="s">
-        <v>626</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>627</v>
-      </c>
-      <c r="S53" s="19" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="S54" s="19" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="S55" s="19" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24" t="s">
-        <v>633</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>602</v>
-      </c>
-      <c r="S56" s="19" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="24" t="s">
-        <v>635</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>636</v>
-      </c>
-      <c r="S57" s="19" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="24" t="s">
-        <v>638</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="S58" s="19" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="24" t="s">
-        <v>640</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="S59" s="19" t="s">
-        <v>641</v>
+      <c r="AG59" s="19" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="S60" s="19" t="s">
-        <v>644</v>
+      <c r="A60" s="0"/>
+      <c r="U60" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="AG60" s="19" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="24" t="s">
-        <v>645</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>646</v>
-      </c>
-      <c r="S61" s="19" t="s">
-        <v>647</v>
+      <c r="A61" s="0"/>
+      <c r="U61" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="AG61" s="19" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="24" t="s">
-        <v>648</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="S62" s="19" t="s">
-        <v>650</v>
+      <c r="A62" s="0"/>
+      <c r="U62" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="AG62" s="19" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="24" t="s">
-        <v>651</v>
-      </c>
-      <c r="S63" s="19" t="s">
-        <v>652</v>
+      <c r="A63" s="0"/>
+      <c r="AG63" s="19" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="24" t="s">
-        <v>653</v>
-      </c>
-      <c r="S64" s="19" t="s">
-        <v>654</v>
+      <c r="A64" s="0"/>
+      <c r="AG64" s="19" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="24" t="s">
-        <v>655</v>
-      </c>
-      <c r="S65" s="19" t="s">
-        <v>656</v>
+      <c r="A65" s="0"/>
+      <c r="AG65" s="19" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="S66" s="19" t="s">
-        <v>657</v>
+      <c r="A66" s="0"/>
+      <c r="AG66" s="19" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="S67" s="19" t="s">
-        <v>658</v>
+      <c r="A67" s="0"/>
+      <c r="AG67" s="19" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="24" t="s">
-        <v>659</v>
-      </c>
-      <c r="S68" s="19" t="s">
-        <v>660</v>
+      <c r="A68" s="0"/>
+      <c r="AG68" s="19" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="24" t="s">
-        <v>661</v>
-      </c>
-      <c r="S69" s="19" t="s">
-        <v>662</v>
+      <c r="A69" s="0"/>
+      <c r="AG69" s="19" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="24" t="s">
-        <v>663</v>
-      </c>
-      <c r="S70" s="19" t="s">
-        <v>664</v>
+      <c r="A70" s="0"/>
+      <c r="AG70" s="19" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="24" t="s">
-        <v>665</v>
-      </c>
-      <c r="S71" s="19" t="s">
-        <v>666</v>
+      <c r="A71" s="0"/>
+      <c r="AG71" s="19" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="24" t="s">
-        <v>667</v>
-      </c>
-      <c r="S72" s="19" t="s">
-        <v>668</v>
+      <c r="A72" s="0"/>
+      <c r="AG72" s="19" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="24" t="s">
-        <v>669</v>
-      </c>
-      <c r="S73" s="19" t="s">
-        <v>670</v>
+      <c r="A73" s="0"/>
+      <c r="AG73" s="19" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="24" t="s">
-        <v>671</v>
-      </c>
-      <c r="S74" s="19" t="s">
-        <v>672</v>
+      <c r="A74" s="0"/>
+      <c r="AG74" s="19" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="24" t="s">
-        <v>673</v>
-      </c>
-      <c r="S75" s="19" t="s">
-        <v>674</v>
+      <c r="A75" s="0"/>
+      <c r="AG75" s="19" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="24" t="s">
-        <v>675</v>
-      </c>
-      <c r="S76" s="19" t="s">
-        <v>676</v>
+      <c r="A76" s="0"/>
+      <c r="AG76" s="19" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="19" t="s">
-        <v>677</v>
-      </c>
-      <c r="S77" s="19" t="s">
-        <v>678</v>
+      <c r="A77" s="0"/>
+      <c r="AG77" s="19" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="S78" s="19" t="s">
-        <v>680</v>
+      <c r="A78" s="0"/>
+      <c r="AG78" s="19" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="19" t="s">
-        <v>681</v>
-      </c>
-      <c r="S79" s="19" t="s">
-        <v>682</v>
+      <c r="A79" s="0"/>
+      <c r="AG79" s="19" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="19" t="s">
-        <v>683</v>
-      </c>
-      <c r="S80" s="19" t="s">
-        <v>684</v>
+      <c r="A80" s="0"/>
+      <c r="AG80" s="19" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="19" t="s">
-        <v>685</v>
-      </c>
-      <c r="S81" s="19" t="s">
-        <v>686</v>
+      <c r="A81" s="0"/>
+      <c r="AG81" s="19" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="19" t="s">
-        <v>687</v>
-      </c>
-      <c r="S82" s="19" t="s">
-        <v>688</v>
+      <c r="A82" s="0"/>
+      <c r="AG82" s="19" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="19" t="s">
-        <v>689</v>
-      </c>
-      <c r="S83" s="19" t="s">
-        <v>690</v>
+      <c r="A83" s="0"/>
+      <c r="AG83" s="19" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="19" t="s">
-        <v>691</v>
-      </c>
-      <c r="S84" s="19" t="s">
-        <v>692</v>
+      <c r="A84" s="0"/>
+      <c r="AG84" s="19" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="19" t="s">
-        <v>693</v>
-      </c>
-      <c r="S85" s="19" t="s">
-        <v>694</v>
+      <c r="A85" s="0"/>
+      <c r="AG85" s="19" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="19" t="s">
-        <v>695</v>
-      </c>
-      <c r="S86" s="19" t="s">
-        <v>696</v>
+      <c r="A86" s="0"/>
+      <c r="AG86" s="19" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="19" t="s">
-        <v>697</v>
-      </c>
-      <c r="S87" s="19" t="s">
-        <v>698</v>
+      <c r="A87" s="0"/>
+      <c r="AG87" s="19" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="19" t="s">
-        <v>699</v>
-      </c>
-      <c r="S88" s="19" t="s">
-        <v>700</v>
+      <c r="A88" s="0"/>
+      <c r="AG88" s="19" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="19" t="s">
-        <v>701</v>
-      </c>
-      <c r="S89" s="19" t="s">
-        <v>702</v>
+      <c r="A89" s="0"/>
+      <c r="AG89" s="19" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="19" t="s">
-        <v>703</v>
-      </c>
-      <c r="S90" s="19" t="s">
-        <v>704</v>
+      <c r="A90" s="0"/>
+      <c r="AG90" s="19" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="19" t="s">
-        <v>705</v>
-      </c>
-      <c r="S91" s="19" t="s">
-        <v>706</v>
+      <c r="A91" s="0"/>
+      <c r="AG91" s="19" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="19" t="s">
-        <v>707</v>
-      </c>
-      <c r="S92" s="19" t="s">
-        <v>708</v>
+      <c r="A92" s="0"/>
+      <c r="AG92" s="19" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="19" t="s">
-        <v>709</v>
-      </c>
-      <c r="S93" s="19" t="s">
-        <v>710</v>
+      <c r="A93" s="0"/>
+      <c r="AG93" s="19" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="19" t="s">
-        <v>711</v>
-      </c>
+      <c r="A94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="19" t="s">
-        <v>712</v>
-      </c>
+      <c r="A95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="19" t="s">
-        <v>713</v>
-      </c>
+      <c r="A96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="19" t="s">
-        <v>714</v>
-      </c>
+      <c r="A97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="19" t="s">
-        <v>715</v>
-      </c>
+      <c r="A98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="19" t="s">
-        <v>716</v>
-      </c>
+      <c r="A99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="19" t="s">
-        <v>717</v>
-      </c>
+      <c r="A100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="19" t="s">
-        <v>718</v>
-      </c>
+      <c r="A101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="19" t="s">
-        <v>130</v>
-      </c>
+      <c r="A102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="19" t="s">
-        <v>719</v>
-      </c>
+      <c r="A103" s="0"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:ZZ10 A29:ZZ1048576 A11:AP28 AR11:ZZ28 AQ13:AQ17 AQ19:AQ24 AQ26:AQ28">
+  <conditionalFormatting sqref="P2:ZZ10 P29:ZZ1048576 A72:A1048576 BF11:ZZ28 P11:BD28 BE13:BE17 BE19:BE24 BE26:BE28 B2:B22 A2:A8 C2:C5 D2:D4 E2:E5 H2:I4 F2:F4 G2:G7 J2:J5 K2:K6 L2:L12 A17:A44 M2:M9 A13 N2:N20 A11 O2">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/TPatches/TPatches.xlsx
+++ b/TPatches/TPatches.xlsx
@@ -242,19 +242,19 @@
     <t xml:space="preserve">Birds Beyond: Temperate Forest</t>
   </si>
   <si>
-    <t xml:space="preserve">Animal Collab Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.C.Animals 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.C.Animals 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.C.Animals 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.C.Animals 4</t>
+    <t xml:space="preserve">Animal Collab Project Vanilla-Style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC_Animal_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC_Animal_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC_Animal_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC_Animal_4</t>
   </si>
   <si>
     <t xml:space="preserve">Bird-Up!</t>
@@ -2333,7 +2333,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2349,7 +2349,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFDCEDC8"/>
       </patternFill>
     </fill>
     <fill>
@@ -2358,8 +2358,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCDD2"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCEDC8"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2372,6 +2384,20 @@
       <right style="thick"/>
       <top style="thick"/>
       <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -2406,7 +2432,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2487,11 +2513,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2499,8 +2537,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2550,7 +2612,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFF2CC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFD9EAD3"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF1155CC"/>
@@ -2565,12 +2627,12 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFD9EAD3"/>
+      <rgbColor rgb="FFDCEDC8"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCDD2"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -30783,10 +30845,10 @@
   </sheetPr>
   <dimension ref="A1:BG103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30802,13 +30864,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="19" width="18.12"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="19" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="19" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="19" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="19" width="29.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="21" style="19" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="20" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="19" width="15.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="19" width="11.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="19" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="19" width="6.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="19" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="21" width="16.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="19" width="20.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="23" style="19" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="19" width="18"/>
@@ -30826,220 +30888,220 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="51" style="19" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="true" ht="43.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+    <row r="1" s="24" customFormat="true" ht="43.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AE1" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AF1" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AG1" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AH1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AI1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="AK1" s="20" t="s">
+      <c r="AK1" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="AL1" s="20" t="s">
+      <c r="AL1" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="AM1" s="20" t="s">
+      <c r="AM1" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AN1" s="20" t="s">
+      <c r="AN1" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="AO1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="AP1" s="20" t="s">
+      <c r="AP1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="AQ1" s="20" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="AR1" s="20" t="s">
+      <c r="AR1" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="AS1" s="20" t="s">
+      <c r="AS1" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="AT1" s="20" t="s">
+      <c r="AT1" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="AU1" s="20" t="s">
+      <c r="AU1" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="AV1" s="20" t="s">
+      <c r="AV1" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AW1" s="20" t="s">
+      <c r="AW1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="AX1" s="20" t="s">
+      <c r="AX1" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="AY1" s="20" t="s">
+      <c r="AY1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="AZ1" s="20" t="s">
+      <c r="AZ1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="BA1" s="20" t="s">
+      <c r="BA1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="BB1" s="20" t="s">
+      <c r="BB1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="BC1" s="20" t="s">
+      <c r="BC1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="BD1" s="20" t="s">
+      <c r="BD1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="BE1" s="20" t="s">
+      <c r="BE1" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="BF1" s="20" t="s">
+      <c r="BF1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="BG1" s="20" t="s">
+      <c r="BG1" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+    <row r="2" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="25" t="s">
         <v>120</v>
       </c>
       <c r="M2" s="19" t="s">
@@ -31048,52 +31110,52 @@
       <c r="N2" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="21" t="s">
         <v>129</v>
       </c>
       <c r="V2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="Z2" s="22" t="s">
+      <c r="Z2" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="AB2" s="0" t="s">
+      <c r="AB2" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="AC2" s="0" t="s">
+      <c r="AC2" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="AD2" s="0" t="s">
+      <c r="AD2" s="19" t="s">
         <v>138</v>
       </c>
       <c r="AE2" s="19" t="s">
@@ -31120,7 +31182,7 @@
       <c r="AL2" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="AM2" s="23" t="s">
+      <c r="AM2" s="29" t="s">
         <v>146</v>
       </c>
       <c r="AN2" s="19" t="s">
@@ -31129,25 +31191,25 @@
       <c r="AP2" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="AQ2" s="0" t="s">
+      <c r="AQ2" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="AR2" s="0" t="s">
+      <c r="AR2" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="AS2" s="0" t="s">
+      <c r="AS2" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="AT2" s="0" t="s">
+      <c r="AT2" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="AU2" s="0" t="s">
+      <c r="AU2" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="AV2" s="0" t="s">
+      <c r="AV2" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="AW2" s="0" t="s">
+      <c r="AW2" s="19" t="s">
         <v>155</v>
       </c>
       <c r="AY2" s="19" t="s">
@@ -31175,41 +31237,41 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+    <row r="3" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="25" t="s">
         <v>174</v>
       </c>
       <c r="M3" s="19" t="s">
@@ -31218,46 +31280,46 @@
       <c r="N3" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="31" t="s">
         <v>120</v>
       </c>
       <c r="V3" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="W3" s="22" t="s">
+      <c r="W3" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="X3" s="22" t="s">
+      <c r="X3" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Y3" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="Z3" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" s="22" t="s">
+      <c r="AA3" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="AC3" s="0" t="s">
+      <c r="AC3" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="AD3" s="0" t="s">
+      <c r="AD3" s="19" t="s">
         <v>188</v>
       </c>
       <c r="AE3" s="19" t="s">
@@ -31284,31 +31346,31 @@
       <c r="AL3" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="AM3" s="23" t="s">
+      <c r="AM3" s="29" t="s">
         <v>197</v>
       </c>
       <c r="AN3" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="AP3" s="23" t="s">
+      <c r="AP3" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="AQ3" s="0" t="s">
+      <c r="AQ3" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="AR3" s="0" t="s">
+      <c r="AR3" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="AS3" s="0" t="s">
+      <c r="AS3" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="AT3" s="0" t="s">
+      <c r="AT3" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="AV3" s="0" t="s">
+      <c r="AV3" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AW3" s="0" t="s">
+      <c r="AW3" s="19" t="s">
         <v>205</v>
       </c>
       <c r="AY3" s="19" t="s">
@@ -31327,41 +31389,41 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
+    <row r="4" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="25" t="s">
         <v>221</v>
       </c>
       <c r="M4" s="19" t="s">
@@ -31370,43 +31432,44 @@
       <c r="N4" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="O4" s="30"/>
+      <c r="P4" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="21" t="s">
         <v>228</v>
       </c>
       <c r="V4" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="W4" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="X4" s="22" t="s">
+      <c r="X4" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="Y4" s="22" t="s">
+      <c r="Y4" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="Z4" s="22" t="s">
+      <c r="Z4" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="AA4" s="22" t="s">
+      <c r="AA4" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="AC4" s="0" t="s">
+      <c r="AC4" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="AD4" s="0" t="s">
+      <c r="AD4" s="19" t="s">
         <v>234</v>
       </c>
       <c r="AE4" s="19" t="s">
@@ -31433,7 +31496,7 @@
       <c r="AL4" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="AM4" s="23" t="s">
+      <c r="AM4" s="29" t="s">
         <v>242</v>
       </c>
       <c r="AN4" s="19" t="s">
@@ -31442,22 +31505,22 @@
       <c r="AP4" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="AQ4" s="0" t="s">
+      <c r="AQ4" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="AR4" s="0" t="s">
+      <c r="AR4" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="AS4" s="0" t="s">
+      <c r="AS4" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="AT4" s="0" t="s">
+      <c r="AT4" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="AV4" s="0" t="s">
+      <c r="AV4" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="AW4" s="0" t="s">
+      <c r="AW4" s="19" t="s">
         <v>250</v>
       </c>
       <c r="AY4" s="19" t="s">
@@ -31477,28 +31540,28 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="25" t="s">
         <v>261</v>
       </c>
       <c r="M5" s="19" t="s">
@@ -31507,43 +31570,45 @@
       <c r="N5" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="O5" s="30"/>
+      <c r="P5" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="Q5" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="21" t="s">
         <v>267</v>
       </c>
       <c r="V5" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="W5" s="24" t="s">
+      <c r="W5" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="X5" s="22" t="s">
+      <c r="X5" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="Y5" s="22" t="s">
+      <c r="Y5" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="Z5" s="22" t="s">
+      <c r="Z5" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="AA5" s="22" t="s">
+      <c r="AA5" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="AC5" s="0" t="s">
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="AD5" s="0" t="s">
+      <c r="AD5" s="19" t="s">
         <v>274</v>
       </c>
       <c r="AE5" s="19" t="s">
@@ -31570,7 +31635,7 @@
       <c r="AL5" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="AM5" s="23" t="s">
+      <c r="AM5" s="29" t="s">
         <v>281</v>
       </c>
       <c r="AN5" s="19" t="s">
@@ -31579,21 +31644,24 @@
       <c r="AP5" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="AQ5" s="0" t="s">
+      <c r="AQ5" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="AR5" s="0" t="s">
+      <c r="AR5" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="AS5" s="0" t="s">
+      <c r="AS5" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="AV5" s="0" t="s">
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="AW5" s="0" t="s">
+      <c r="AW5" s="19" t="s">
         <v>288</v>
       </c>
+      <c r="AX5" s="19"/>
       <c r="AY5" s="19" t="s">
         <v>289</v>
       </c>
@@ -31611,19 +31679,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="25" t="s">
         <v>298</v>
       </c>
       <c r="M6" s="19" t="s">
@@ -31632,34 +31700,36 @@
       <c r="N6" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="O6" s="30"/>
+      <c r="P6" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="Q6" s="22" t="s">
+      <c r="Q6" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="21" t="s">
         <v>303</v>
       </c>
       <c r="V6" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="X6" s="22" t="s">
+      <c r="X6" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="Y6" s="22" t="s">
+      <c r="Y6" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="Z6" s="22" t="s">
+      <c r="Z6" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="AA6" s="22" t="s">
+      <c r="AA6" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="AC6" s="0" t="s">
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="AD6" s="0" t="s">
+      <c r="AD6" s="19" t="s">
         <v>310</v>
       </c>
       <c r="AE6" s="19" t="s">
@@ -31683,7 +31753,7 @@
       <c r="AL6" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="AM6" s="23" t="s">
+      <c r="AM6" s="29" t="s">
         <v>318</v>
       </c>
       <c r="AN6" s="19" t="s">
@@ -31692,21 +31762,24 @@
       <c r="AP6" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="AQ6" s="0" t="s">
+      <c r="AQ6" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="AR6" s="0" t="s">
+      <c r="AR6" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="AS6" s="0" t="s">
+      <c r="AS6" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="AV6" s="0" t="s">
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="AW6" s="0" t="s">
+      <c r="AW6" s="19" t="s">
         <v>325</v>
       </c>
+      <c r="AX6" s="19"/>
       <c r="AY6" s="19" t="s">
         <v>326</v>
       </c>
@@ -31721,16 +31794,16 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="25" t="s">
         <v>332</v>
       </c>
       <c r="M7" s="19" t="s">
@@ -31739,31 +31812,33 @@
       <c r="N7" s="19" t="s">
         <v>334</v>
       </c>
+      <c r="O7" s="30"/>
       <c r="P7" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="Q7" s="22" t="s">
+      <c r="Q7" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="U7" s="19" t="s">
+      <c r="U7" s="21" t="s">
         <v>337</v>
       </c>
       <c r="V7" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="X7" s="22" t="s">
+      <c r="X7" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="Y7" s="22" t="s">
+      <c r="Y7" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="AA7" s="22" t="s">
+      <c r="AA7" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="AC7" s="0" t="s">
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="AD7" s="0" t="s">
+      <c r="AD7" s="19" t="s">
         <v>343</v>
       </c>
       <c r="AE7" s="19" t="s">
@@ -31793,21 +31868,24 @@
       <c r="AP7" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="AQ7" s="0" t="s">
+      <c r="AQ7" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="AR7" s="0" t="s">
+      <c r="AR7" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="AS7" s="0" t="s">
+      <c r="AS7" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="AV7" s="0" t="s">
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="AW7" s="0" t="s">
+      <c r="AW7" s="19" t="s">
         <v>356</v>
       </c>
+      <c r="AX7" s="19"/>
       <c r="AY7" s="19" t="s">
         <v>357</v>
       </c>
@@ -31816,13 +31894,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="25" t="s">
         <v>361</v>
       </c>
       <c r="M8" s="19" t="s">
@@ -31831,22 +31909,24 @@
       <c r="N8" s="19" t="s">
         <v>362</v>
       </c>
+      <c r="O8" s="30"/>
       <c r="P8" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="Q8" s="22" t="s">
+      <c r="Q8" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="U8" s="19" t="s">
+      <c r="U8" s="31" t="s">
         <v>168</v>
       </c>
       <c r="V8" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="AC8" s="0" t="s">
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="AD8" s="0" t="s">
+      <c r="AD8" s="19" t="s">
         <v>366</v>
       </c>
       <c r="AE8" s="19" t="s">
@@ -31876,15 +31956,20 @@
       <c r="AP8" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="AQ8" s="0" t="s">
+      <c r="AQ8" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="AR8" s="0" t="s">
+      <c r="AR8" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="AW8" s="0" t="s">
+      <c r="AS8" s="19"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="19" t="s">
         <v>377</v>
       </c>
+      <c r="AX8" s="19"/>
       <c r="AY8" s="19" t="s">
         <v>378</v>
       </c>
@@ -31894,10 +31979,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="25" t="s">
         <v>381</v>
       </c>
       <c r="M9" s="19" t="s">
@@ -31906,19 +31991,21 @@
       <c r="N9" s="19" t="s">
         <v>383</v>
       </c>
+      <c r="O9" s="30"/>
       <c r="P9" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="U9" s="31" t="s">
         <v>174</v>
       </c>
       <c r="V9" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="AC9" s="0" t="s">
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="AD9" s="0" t="s">
+      <c r="AD9" s="19" t="s">
         <v>387</v>
       </c>
       <c r="AE9" s="19" t="s">
@@ -31945,15 +32032,20 @@
       <c r="AP9" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="AQ9" s="0" t="s">
+      <c r="AQ9" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="AR9" s="0" t="s">
+      <c r="AR9" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="AW9" s="0" t="s">
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19" t="s">
         <v>398</v>
       </c>
+      <c r="AX9" s="19"/>
       <c r="AY9" s="19" t="s">
         <v>399</v>
       </c>
@@ -31963,28 +32055,30 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="25" t="s">
         <v>402</v>
       </c>
       <c r="N10" s="19" t="s">
         <v>403</v>
       </c>
+      <c r="O10" s="30"/>
       <c r="P10" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="21" t="s">
         <v>405</v>
       </c>
       <c r="V10" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="AC10" s="0" t="s">
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="AD10" s="0" t="s">
+      <c r="AD10" s="19" t="s">
         <v>408</v>
       </c>
       <c r="AE10" s="19" t="s">
@@ -32008,15 +32102,20 @@
       <c r="AL10" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="AQ10" s="0" t="s">
+      <c r="AQ10" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="AR10" s="0" t="s">
+      <c r="AR10" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="AW10" s="0" t="s">
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19" t="s">
         <v>418</v>
       </c>
+      <c r="AX10" s="19"/>
       <c r="AY10" s="19" t="s">
         <v>419</v>
       </c>
@@ -32026,28 +32125,30 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="25" t="s">
         <v>422</v>
       </c>
       <c r="N11" s="19" t="s">
         <v>423</v>
       </c>
+      <c r="O11" s="30"/>
       <c r="P11" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="U11" s="19" t="s">
+      <c r="U11" s="31" t="s">
         <v>109</v>
       </c>
       <c r="V11" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="AC11" s="0" t="s">
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="AD11" s="0" t="s">
+      <c r="AD11" s="19" t="s">
         <v>427</v>
       </c>
       <c r="AE11" s="19" t="s">
@@ -32071,15 +32172,20 @@
       <c r="AL11" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="AQ11" s="0" t="s">
+      <c r="AQ11" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="AR11" s="0" t="s">
+      <c r="AR11" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="AW11" s="0" t="s">
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19" t="s">
         <v>437</v>
       </c>
+      <c r="AX11" s="19"/>
       <c r="AY11" s="19" t="s">
         <v>438</v>
       </c>
@@ -32089,24 +32195,27 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="25" t="s">
         <v>441</v>
       </c>
       <c r="N12" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="U12" s="19" t="s">
+      <c r="O12" s="30"/>
+      <c r="U12" s="21" t="s">
         <v>443</v>
       </c>
       <c r="V12" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="AC12" s="0" t="s">
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19" t="s">
         <v>445</v>
       </c>
+      <c r="AD12" s="19"/>
       <c r="AE12" s="19" t="s">
         <v>258</v>
       </c>
@@ -32125,36 +32234,44 @@
       <c r="AK12" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="AQ12" s="0" t="s">
+      <c r="AQ12" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="AR12" s="0" t="s">
+      <c r="AR12" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="AW12" s="0" t="s">
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19" t="s">
         <v>453</v>
       </c>
+      <c r="AX12" s="19"/>
       <c r="BE12" s="19" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="25" t="s">
         <v>455</v>
       </c>
       <c r="N13" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="U13" s="19" t="s">
+      <c r="O13" s="30"/>
+      <c r="U13" s="21" t="s">
         <v>457</v>
       </c>
       <c r="V13" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="AC13" s="0" t="s">
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19" t="s">
         <v>275</v>
       </c>
+      <c r="AD13" s="19"/>
       <c r="AE13" s="19" t="s">
         <v>459</v>
       </c>
@@ -32173,30 +32290,40 @@
       <c r="AK13" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="AW13" s="0" t="s">
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="19" t="s">
         <v>465</v>
       </c>
+      <c r="AX13" s="19"/>
       <c r="BE13" s="19" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="25" t="s">
         <v>467</v>
       </c>
       <c r="N14" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="U14" s="19" t="s">
+      <c r="O14" s="30"/>
+      <c r="U14" s="21" t="s">
         <v>469</v>
       </c>
       <c r="V14" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="AC14" s="0" t="s">
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19" t="s">
         <v>471</v>
       </c>
+      <c r="AD14" s="19"/>
       <c r="AE14" s="19" t="s">
         <v>472</v>
       </c>
@@ -32215,30 +32342,40 @@
       <c r="AK14" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="AW14" s="0" t="s">
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="19" t="s">
         <v>478</v>
       </c>
+      <c r="AX14" s="19"/>
       <c r="BE14" s="19" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="25" t="s">
         <v>480</v>
       </c>
       <c r="N15" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="U15" s="19" t="s">
+      <c r="O15" s="30"/>
+      <c r="U15" s="21" t="s">
         <v>482</v>
       </c>
       <c r="V15" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="AC15" s="0" t="s">
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19" t="s">
         <v>484</v>
       </c>
+      <c r="AD15" s="19"/>
       <c r="AE15" s="19" t="s">
         <v>485</v>
       </c>
@@ -32257,30 +32394,40 @@
       <c r="AK15" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="AW15" s="0" t="s">
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="19"/>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="19" t="s">
         <v>491</v>
       </c>
+      <c r="AX15" s="19"/>
       <c r="BE15" s="19" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="25" t="s">
         <v>493</v>
       </c>
       <c r="N16" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="U16" s="19" t="s">
+      <c r="O16" s="30"/>
+      <c r="U16" s="21" t="s">
         <v>495</v>
       </c>
       <c r="V16" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="AC16" s="0" t="s">
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19" t="s">
         <v>497</v>
       </c>
+      <c r="AD16" s="19"/>
       <c r="AE16" s="19" t="s">
         <v>498</v>
       </c>
@@ -32299,30 +32446,40 @@
       <c r="AK16" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="AW16" s="0" t="s">
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19" t="s">
         <v>504</v>
       </c>
+      <c r="AX16" s="19"/>
       <c r="BE16" s="19" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="25" t="s">
         <v>506</v>
       </c>
       <c r="N17" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="U17" s="19" t="s">
+      <c r="O17" s="30"/>
+      <c r="U17" s="21" t="s">
         <v>508</v>
       </c>
       <c r="V17" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="AC17" s="0" t="s">
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19" t="s">
         <v>510</v>
       </c>
+      <c r="AD17" s="19"/>
       <c r="AE17" s="19" t="s">
         <v>511</v>
       </c>
@@ -32341,27 +32498,38 @@
       <c r="AK17" s="19" t="s">
         <v>516</v>
       </c>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
       <c r="BE17" s="19" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="25" t="s">
         <v>518</v>
       </c>
       <c r="N18" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="U18" s="19" t="s">
+      <c r="O18" s="30"/>
+      <c r="U18" s="21" t="s">
         <v>520</v>
       </c>
       <c r="V18" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="AC18" s="0" t="s">
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19" t="s">
         <v>522</v>
       </c>
+      <c r="AD18" s="19"/>
       <c r="AE18" s="19" t="s">
         <v>523</v>
       </c>
@@ -32380,27 +32548,38 @@
       <c r="AK18" s="19" t="s">
         <v>528</v>
       </c>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="19"/>
+      <c r="AV18" s="19"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="19"/>
       <c r="BE18" s="19" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="25" t="s">
         <v>530</v>
       </c>
       <c r="N19" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="U19" s="19" t="s">
+      <c r="O19" s="30"/>
+      <c r="U19" s="31" t="s">
         <v>127</v>
       </c>
       <c r="V19" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="AC19" s="0" t="s">
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19" t="s">
         <v>533</v>
       </c>
+      <c r="AD19" s="19"/>
       <c r="AE19" s="19" t="s">
         <v>534</v>
       </c>
@@ -32419,27 +32598,38 @@
       <c r="AK19" s="19" t="s">
         <v>539</v>
       </c>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
       <c r="BE19" s="19" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="25" t="s">
         <v>541</v>
       </c>
       <c r="N20" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="U20" s="19" t="s">
+      <c r="O20" s="30"/>
+      <c r="U20" s="21" t="s">
         <v>543</v>
       </c>
       <c r="V20" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="AC20" s="0" t="s">
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19" t="s">
         <v>545</v>
       </c>
+      <c r="AD20" s="19"/>
       <c r="AE20" s="19" t="s">
         <v>359</v>
       </c>
@@ -32458,24 +32648,35 @@
       <c r="AK20" s="19" t="s">
         <v>550</v>
       </c>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
       <c r="BE20" s="19" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0"/>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="25" t="s">
         <v>552</v>
       </c>
-      <c r="U21" s="19" t="s">
+      <c r="O21" s="30"/>
+      <c r="U21" s="21" t="s">
         <v>136</v>
       </c>
       <c r="V21" s="19" t="s">
         <v>553</v>
       </c>
-      <c r="AC21" s="0" t="s">
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19" t="s">
         <v>554</v>
       </c>
+      <c r="AD21" s="19"/>
       <c r="AG21" s="19" t="s">
         <v>555</v>
       </c>
@@ -32491,24 +32692,35 @@
       <c r="AK21" s="19" t="s">
         <v>559</v>
       </c>
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="19"/>
+      <c r="AU21" s="19"/>
+      <c r="AV21" s="19"/>
+      <c r="AW21" s="19"/>
+      <c r="AX21" s="19"/>
       <c r="BE21" s="19" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="U22" s="19" t="s">
+      <c r="O22" s="30"/>
+      <c r="U22" s="21" t="s">
         <v>562</v>
       </c>
       <c r="V22" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="AC22" s="0" t="s">
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19" t="s">
         <v>564</v>
       </c>
+      <c r="AD22" s="19"/>
       <c r="AG22" s="19" t="s">
         <v>565</v>
       </c>
@@ -32524,21 +32736,32 @@
       <c r="AK22" s="19" t="s">
         <v>568</v>
       </c>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
       <c r="BE22" s="19" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0"/>
-      <c r="U23" s="19" t="s">
+      <c r="O23" s="30"/>
+      <c r="U23" s="31" t="s">
         <v>185</v>
       </c>
       <c r="V23" s="19" t="s">
         <v>570</v>
       </c>
-      <c r="AC23" s="0" t="s">
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19" t="s">
         <v>571</v>
       </c>
+      <c r="AD23" s="19"/>
       <c r="AG23" s="19" t="s">
         <v>572</v>
       </c>
@@ -32554,21 +32777,32 @@
       <c r="AK23" s="19" t="s">
         <v>576</v>
       </c>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
       <c r="BE23" s="19" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0"/>
-      <c r="U24" s="19" t="s">
+      <c r="O24" s="30"/>
+      <c r="U24" s="21" t="s">
         <v>578</v>
       </c>
       <c r="V24" s="19" t="s">
         <v>579</v>
       </c>
-      <c r="AC24" s="0" t="s">
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19" t="s">
         <v>580</v>
       </c>
+      <c r="AD24" s="19"/>
       <c r="AG24" s="19" t="s">
         <v>581</v>
       </c>
@@ -32584,21 +32818,32 @@
       <c r="AK24" s="19" t="s">
         <v>585</v>
       </c>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
       <c r="BE24" s="19" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
-      <c r="U25" s="19" t="s">
+      <c r="O25" s="30"/>
+      <c r="U25" s="21" t="s">
         <v>587</v>
       </c>
       <c r="V25" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="AC25" s="0" t="s">
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19" t="s">
         <v>589</v>
       </c>
+      <c r="AD25" s="19"/>
       <c r="AG25" s="19" t="s">
         <v>590</v>
       </c>
@@ -32614,21 +32859,32 @@
       <c r="AK25" s="19" t="s">
         <v>594</v>
       </c>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="19"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
       <c r="BE25" s="19" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
-      <c r="U26" s="19" t="s">
+      <c r="O26" s="30"/>
+      <c r="U26" s="21" t="s">
         <v>596</v>
       </c>
       <c r="V26" s="19" t="s">
         <v>597</v>
       </c>
-      <c r="AC26" s="0" t="s">
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19" t="s">
         <v>598</v>
       </c>
+      <c r="AD26" s="19"/>
       <c r="AG26" s="19" t="s">
         <v>599</v>
       </c>
@@ -32641,21 +32897,32 @@
       <c r="AK26" s="19" t="s">
         <v>602</v>
       </c>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
       <c r="BE26" s="19" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0"/>
-      <c r="U27" s="19" t="s">
+      <c r="O27" s="30"/>
+      <c r="U27" s="21" t="s">
         <v>604</v>
       </c>
       <c r="V27" s="19" t="s">
         <v>605</v>
       </c>
-      <c r="AC27" s="0" t="s">
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19" t="s">
         <v>606</v>
       </c>
+      <c r="AD27" s="19"/>
       <c r="AG27" s="19" t="s">
         <v>607</v>
       </c>
@@ -32668,21 +32935,32 @@
       <c r="AK27" s="19" t="s">
         <v>610</v>
       </c>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="19"/>
+      <c r="AU27" s="19"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="19"/>
       <c r="BE27" s="19" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0"/>
-      <c r="U28" s="19" t="s">
+      <c r="O28" s="30"/>
+      <c r="U28" s="31" t="s">
         <v>220</v>
       </c>
       <c r="V28" s="19" t="s">
         <v>612</v>
       </c>
-      <c r="AC28" s="0" t="s">
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19" t="s">
         <v>613</v>
       </c>
+      <c r="AD28" s="19"/>
       <c r="AG28" s="19" t="s">
         <v>614</v>
       </c>
@@ -32692,21 +32970,32 @@
       <c r="AI28" s="19" t="s">
         <v>616</v>
       </c>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="19"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="19"/>
       <c r="BE28" s="19" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
-      <c r="U29" s="19" t="s">
+      <c r="O29" s="30"/>
+      <c r="U29" s="31" t="s">
         <v>294</v>
       </c>
       <c r="V29" s="19" t="s">
         <v>618</v>
       </c>
-      <c r="AC29" s="0" t="s">
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19" t="s">
         <v>619</v>
       </c>
+      <c r="AD29" s="19"/>
       <c r="AG29" s="19" t="s">
         <v>620</v>
       </c>
@@ -32716,18 +33005,29 @@
       <c r="AI29" s="19" t="s">
         <v>622</v>
       </c>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19"/>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="19"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
-      <c r="U30" s="19" t="s">
+      <c r="O30" s="30"/>
+      <c r="U30" s="21" t="s">
         <v>623</v>
       </c>
       <c r="V30" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="AC30" s="0" t="s">
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19" t="s">
         <v>625</v>
       </c>
+      <c r="AD30" s="19"/>
       <c r="AG30" s="19" t="s">
         <v>626</v>
       </c>
@@ -32737,18 +33037,29 @@
       <c r="AI30" s="19" t="s">
         <v>628</v>
       </c>
+      <c r="AQ30" s="19"/>
+      <c r="AR30" s="19"/>
+      <c r="AS30" s="19"/>
+      <c r="AT30" s="19"/>
+      <c r="AU30" s="19"/>
+      <c r="AV30" s="19"/>
+      <c r="AW30" s="19"/>
+      <c r="AX30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
-      <c r="U31" s="19" t="s">
+      <c r="O31" s="30"/>
+      <c r="U31" s="21" t="s">
         <v>629</v>
       </c>
       <c r="V31" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="AC31" s="0" t="s">
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19" t="s">
         <v>631</v>
       </c>
+      <c r="AD31" s="19"/>
       <c r="AG31" s="19" t="s">
         <v>632</v>
       </c>
@@ -32758,18 +33069,29 @@
       <c r="AI31" s="19" t="s">
         <v>634</v>
       </c>
+      <c r="AQ31" s="19"/>
+      <c r="AR31" s="19"/>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="19"/>
+      <c r="AU31" s="19"/>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0"/>
-      <c r="U32" s="19" t="s">
+      <c r="O32" s="30"/>
+      <c r="U32" s="21" t="s">
         <v>635</v>
       </c>
       <c r="V32" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="AC32" s="0" t="s">
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19" t="s">
         <v>637</v>
       </c>
+      <c r="AD32" s="19"/>
       <c r="AG32" s="19" t="s">
         <v>638</v>
       </c>
@@ -32779,18 +33101,29 @@
       <c r="AI32" s="19" t="s">
         <v>640</v>
       </c>
+      <c r="AQ32" s="19"/>
+      <c r="AR32" s="19"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="19"/>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="U33" s="19" t="s">
+      <c r="O33" s="30"/>
+      <c r="U33" s="21" t="s">
         <v>275</v>
       </c>
       <c r="V33" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="AC33" s="0" t="s">
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19" t="s">
         <v>642</v>
       </c>
+      <c r="AD33" s="19"/>
       <c r="AG33" s="19" t="s">
         <v>643</v>
       </c>
@@ -32800,525 +33133,1337 @@
       <c r="AI33" s="19" t="s">
         <v>645</v>
       </c>
+      <c r="AQ33" s="19"/>
+      <c r="AR33" s="19"/>
+      <c r="AS33" s="19"/>
+      <c r="AT33" s="19"/>
+      <c r="AU33" s="19"/>
+      <c r="AV33" s="19"/>
+      <c r="AW33" s="19"/>
+      <c r="AX33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
-      <c r="U34" s="19" t="s">
+      <c r="O34" s="30"/>
+      <c r="U34" s="31" t="s">
         <v>183</v>
       </c>
       <c r="V34" s="19" t="s">
         <v>646</v>
       </c>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
       <c r="AG34" s="19" t="s">
         <v>647</v>
       </c>
       <c r="AI34" s="19" t="s">
         <v>648</v>
       </c>
+      <c r="AQ34" s="19"/>
+      <c r="AR34" s="19"/>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="19"/>
+      <c r="AU34" s="19"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
-      <c r="U35" s="19" t="s">
+      <c r="O35" s="30"/>
+      <c r="U35" s="31" t="s">
         <v>133</v>
       </c>
       <c r="V35" s="19" t="s">
         <v>649</v>
       </c>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
       <c r="AG35" s="19" t="s">
         <v>650</v>
       </c>
       <c r="AI35" s="19" t="s">
         <v>651</v>
       </c>
+      <c r="AQ35" s="19"/>
+      <c r="AR35" s="19"/>
+      <c r="AS35" s="19"/>
+      <c r="AT35" s="19"/>
+      <c r="AU35" s="19"/>
+      <c r="AV35" s="19"/>
+      <c r="AW35" s="19"/>
+      <c r="AX35" s="19"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
-      <c r="U36" s="19" t="s">
+      <c r="O36" s="30"/>
+      <c r="U36" s="21" t="s">
         <v>652</v>
       </c>
       <c r="V36" s="19" t="s">
         <v>653</v>
       </c>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
       <c r="AG36" s="19" t="s">
         <v>654</v>
       </c>
       <c r="AI36" s="19" t="s">
         <v>655</v>
       </c>
+      <c r="AQ36" s="19"/>
+      <c r="AR36" s="19"/>
+      <c r="AS36" s="19"/>
+      <c r="AT36" s="19"/>
+      <c r="AU36" s="19"/>
+      <c r="AV36" s="19"/>
+      <c r="AW36" s="19"/>
+      <c r="AX36" s="19"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
-      <c r="U37" s="19" t="s">
+      <c r="O37" s="30"/>
+      <c r="U37" s="21" t="s">
         <v>656</v>
       </c>
       <c r="V37" s="19" t="s">
         <v>657</v>
       </c>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
       <c r="AG37" s="19" t="s">
         <v>658</v>
       </c>
       <c r="AI37" s="19" t="s">
         <v>659</v>
       </c>
+      <c r="AQ37" s="19"/>
+      <c r="AR37" s="19"/>
+      <c r="AS37" s="19"/>
+      <c r="AT37" s="19"/>
+      <c r="AU37" s="19"/>
+      <c r="AV37" s="19"/>
+      <c r="AW37" s="19"/>
+      <c r="AX37" s="19"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0"/>
-      <c r="U38" s="19" t="s">
+      <c r="O38" s="30"/>
+      <c r="U38" s="21" t="s">
         <v>660</v>
       </c>
       <c r="V38" s="19" t="s">
         <v>661</v>
       </c>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
       <c r="AG38" s="19" t="s">
         <v>662</v>
       </c>
       <c r="AI38" s="19" t="s">
         <v>663</v>
       </c>
+      <c r="AQ38" s="19"/>
+      <c r="AR38" s="19"/>
+      <c r="AS38" s="19"/>
+      <c r="AT38" s="19"/>
+      <c r="AU38" s="19"/>
+      <c r="AV38" s="19"/>
+      <c r="AW38" s="19"/>
+      <c r="AX38" s="19"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
-      <c r="U39" s="19" t="s">
+      <c r="O39" s="30"/>
+      <c r="U39" s="21" t="s">
         <v>664</v>
       </c>
       <c r="V39" s="19" t="s">
         <v>665</v>
       </c>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
       <c r="AG39" s="19" t="s">
         <v>666</v>
       </c>
       <c r="AI39" s="19" t="s">
         <v>667</v>
       </c>
+      <c r="AQ39" s="19"/>
+      <c r="AR39" s="19"/>
+      <c r="AS39" s="19"/>
+      <c r="AT39" s="19"/>
+      <c r="AU39" s="19"/>
+      <c r="AV39" s="19"/>
+      <c r="AW39" s="19"/>
+      <c r="AX39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0"/>
-      <c r="U40" s="19" t="s">
+      <c r="O40" s="30"/>
+      <c r="U40" s="21" t="s">
         <v>166</v>
       </c>
       <c r="V40" s="19" t="s">
         <v>668</v>
       </c>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
       <c r="AG40" s="19" t="s">
         <v>669</v>
       </c>
+      <c r="AQ40" s="19"/>
+      <c r="AR40" s="19"/>
+      <c r="AS40" s="19"/>
+      <c r="AT40" s="19"/>
+      <c r="AU40" s="19"/>
+      <c r="AV40" s="19"/>
+      <c r="AW40" s="19"/>
+      <c r="AX40" s="19"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0"/>
-      <c r="U41" s="19" t="s">
+      <c r="O41" s="30"/>
+      <c r="U41" s="31" t="s">
         <v>440</v>
       </c>
       <c r="V41" s="19" t="s">
         <v>670</v>
       </c>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
       <c r="AG41" s="19" t="s">
         <v>671</v>
       </c>
+      <c r="AQ41" s="19"/>
+      <c r="AR41" s="19"/>
+      <c r="AS41" s="19"/>
+      <c r="AT41" s="19"/>
+      <c r="AU41" s="19"/>
+      <c r="AV41" s="19"/>
+      <c r="AW41" s="19"/>
+      <c r="AX41" s="19"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0"/>
-      <c r="U42" s="19" t="s">
+      <c r="O42" s="30"/>
+      <c r="U42" s="31" t="s">
         <v>190</v>
       </c>
       <c r="V42" s="19" t="s">
         <v>672</v>
       </c>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
       <c r="AG42" s="19" t="s">
         <v>673</v>
       </c>
+      <c r="AQ42" s="19"/>
+      <c r="AR42" s="19"/>
+      <c r="AS42" s="19"/>
+      <c r="AT42" s="19"/>
+      <c r="AU42" s="19"/>
+      <c r="AV42" s="19"/>
+      <c r="AW42" s="19"/>
+      <c r="AX42" s="19"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0"/>
-      <c r="U43" s="19" t="s">
+      <c r="O43" s="30"/>
+      <c r="U43" s="21" t="s">
         <v>139</v>
       </c>
       <c r="V43" s="19" t="s">
         <v>674</v>
       </c>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
       <c r="AG43" s="19" t="s">
         <v>675</v>
       </c>
+      <c r="AQ43" s="19"/>
+      <c r="AR43" s="19"/>
+      <c r="AS43" s="19"/>
+      <c r="AT43" s="19"/>
+      <c r="AU43" s="19"/>
+      <c r="AV43" s="19"/>
+      <c r="AW43" s="19"/>
+      <c r="AX43" s="19"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0"/>
-      <c r="U44" s="19" t="s">
+      <c r="O44" s="30"/>
+      <c r="U44" s="21" t="s">
         <v>676</v>
       </c>
       <c r="V44" s="19" t="s">
         <v>677</v>
       </c>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
       <c r="AG44" s="19" t="s">
         <v>678</v>
       </c>
+      <c r="AQ44" s="19"/>
+      <c r="AR44" s="19"/>
+      <c r="AS44" s="19"/>
+      <c r="AT44" s="19"/>
+      <c r="AU44" s="19"/>
+      <c r="AV44" s="19"/>
+      <c r="AW44" s="19"/>
+      <c r="AX44" s="19"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0"/>
-      <c r="U45" s="19" t="s">
+      <c r="O45" s="30"/>
+      <c r="U45" s="31" t="s">
         <v>117</v>
       </c>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="19"/>
       <c r="AG45" s="19" t="s">
         <v>679</v>
       </c>
+      <c r="AQ45" s="19"/>
+      <c r="AR45" s="19"/>
+      <c r="AS45" s="19"/>
+      <c r="AT45" s="19"/>
+      <c r="AU45" s="19"/>
+      <c r="AV45" s="19"/>
+      <c r="AW45" s="19"/>
+      <c r="AX45" s="19"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0"/>
-      <c r="U46" s="19" t="s">
+      <c r="O46" s="30"/>
+      <c r="U46" s="31" t="s">
         <v>257</v>
       </c>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
       <c r="AG46" s="19" t="s">
         <v>680</v>
       </c>
+      <c r="AQ46" s="19"/>
+      <c r="AR46" s="19"/>
+      <c r="AS46" s="19"/>
+      <c r="AT46" s="19"/>
+      <c r="AU46" s="19"/>
+      <c r="AV46" s="19"/>
+      <c r="AW46" s="19"/>
+      <c r="AX46" s="19"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0"/>
-      <c r="U47" s="19" t="s">
+      <c r="O47" s="30"/>
+      <c r="U47" s="31" t="s">
         <v>336</v>
       </c>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
       <c r="AG47" s="19" t="s">
         <v>409</v>
       </c>
+      <c r="AQ47" s="19"/>
+      <c r="AR47" s="19"/>
+      <c r="AS47" s="19"/>
+      <c r="AT47" s="19"/>
+      <c r="AU47" s="19"/>
+      <c r="AV47" s="19"/>
+      <c r="AW47" s="19"/>
+      <c r="AX47" s="19"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0"/>
-      <c r="U48" s="19" t="s">
+      <c r="O48" s="30"/>
+      <c r="U48" s="21" t="s">
         <v>681</v>
       </c>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
       <c r="AG48" s="19" t="s">
         <v>682</v>
       </c>
+      <c r="AQ48" s="19"/>
+      <c r="AR48" s="19"/>
+      <c r="AS48" s="19"/>
+      <c r="AT48" s="19"/>
+      <c r="AU48" s="19"/>
+      <c r="AV48" s="19"/>
+      <c r="AW48" s="19"/>
+      <c r="AX48" s="19"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0"/>
-      <c r="U49" s="19" t="s">
+      <c r="O49" s="30"/>
+      <c r="U49" s="31" t="s">
         <v>260</v>
       </c>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="19"/>
       <c r="AG49" s="19" t="s">
         <v>683</v>
       </c>
+      <c r="AQ49" s="19"/>
+      <c r="AR49" s="19"/>
+      <c r="AS49" s="19"/>
+      <c r="AT49" s="19"/>
+      <c r="AU49" s="19"/>
+      <c r="AV49" s="19"/>
+      <c r="AW49" s="19"/>
+      <c r="AX49" s="19"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0"/>
-      <c r="U50" s="19" t="s">
+      <c r="O50" s="30"/>
+      <c r="U50" s="31" t="s">
         <v>171</v>
       </c>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
       <c r="AG50" s="19" t="s">
         <v>684</v>
       </c>
+      <c r="AQ50" s="19"/>
+      <c r="AR50" s="19"/>
+      <c r="AS50" s="19"/>
+      <c r="AT50" s="19"/>
+      <c r="AU50" s="19"/>
+      <c r="AV50" s="19"/>
+      <c r="AW50" s="19"/>
+      <c r="AX50" s="19"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0"/>
-      <c r="U51" s="19" t="s">
+      <c r="O51" s="30"/>
+      <c r="U51" s="21" t="s">
         <v>685</v>
       </c>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19"/>
       <c r="AG51" s="19" t="s">
         <v>686</v>
       </c>
+      <c r="AQ51" s="19"/>
+      <c r="AR51" s="19"/>
+      <c r="AS51" s="19"/>
+      <c r="AT51" s="19"/>
+      <c r="AU51" s="19"/>
+      <c r="AV51" s="19"/>
+      <c r="AW51" s="19"/>
+      <c r="AX51" s="19"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0"/>
-      <c r="U52" s="19" t="s">
+      <c r="O52" s="30"/>
+      <c r="U52" s="21" t="s">
         <v>687</v>
       </c>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
       <c r="AG52" s="19" t="s">
         <v>688</v>
       </c>
+      <c r="AQ52" s="19"/>
+      <c r="AR52" s="19"/>
+      <c r="AS52" s="19"/>
+      <c r="AT52" s="19"/>
+      <c r="AU52" s="19"/>
+      <c r="AV52" s="19"/>
+      <c r="AW52" s="19"/>
+      <c r="AX52" s="19"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0"/>
-      <c r="U53" s="19" t="s">
+      <c r="O53" s="30"/>
+      <c r="U53" s="21" t="s">
         <v>689</v>
       </c>
+      <c r="AB53" s="19"/>
+      <c r="AC53" s="19"/>
+      <c r="AD53" s="19"/>
       <c r="AG53" s="19" t="s">
         <v>690</v>
       </c>
+      <c r="AQ53" s="19"/>
+      <c r="AR53" s="19"/>
+      <c r="AS53" s="19"/>
+      <c r="AT53" s="19"/>
+      <c r="AU53" s="19"/>
+      <c r="AV53" s="19"/>
+      <c r="AW53" s="19"/>
+      <c r="AX53" s="19"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0"/>
-      <c r="U54" s="19" t="s">
+      <c r="O54" s="30"/>
+      <c r="U54" s="31" t="s">
         <v>265</v>
       </c>
+      <c r="AB54" s="19"/>
+      <c r="AC54" s="19"/>
+      <c r="AD54" s="19"/>
       <c r="AG54" s="19" t="s">
         <v>691</v>
       </c>
+      <c r="AQ54" s="19"/>
+      <c r="AR54" s="19"/>
+      <c r="AS54" s="19"/>
+      <c r="AT54" s="19"/>
+      <c r="AU54" s="19"/>
+      <c r="AV54" s="19"/>
+      <c r="AW54" s="19"/>
+      <c r="AX54" s="19"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0"/>
-      <c r="U55" s="19" t="s">
+      <c r="O55" s="30"/>
+      <c r="U55" s="21" t="s">
         <v>692</v>
       </c>
+      <c r="AB55" s="19"/>
+      <c r="AC55" s="19"/>
+      <c r="AD55" s="19"/>
       <c r="AG55" s="19" t="s">
         <v>693</v>
       </c>
+      <c r="AQ55" s="19"/>
+      <c r="AR55" s="19"/>
+      <c r="AS55" s="19"/>
+      <c r="AT55" s="19"/>
+      <c r="AU55" s="19"/>
+      <c r="AV55" s="19"/>
+      <c r="AW55" s="19"/>
+      <c r="AX55" s="19"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0"/>
-      <c r="U56" s="19" t="s">
+      <c r="O56" s="30"/>
+      <c r="U56" s="31" t="s">
         <v>296</v>
       </c>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
       <c r="AG56" s="19" t="s">
         <v>694</v>
       </c>
+      <c r="AQ56" s="19"/>
+      <c r="AR56" s="19"/>
+      <c r="AS56" s="19"/>
+      <c r="AT56" s="19"/>
+      <c r="AU56" s="19"/>
+      <c r="AV56" s="19"/>
+      <c r="AW56" s="19"/>
+      <c r="AX56" s="19"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0"/>
-      <c r="U57" s="19" t="s">
+      <c r="O57" s="30"/>
+      <c r="U57" s="21" t="s">
         <v>695</v>
       </c>
+      <c r="AB57" s="19"/>
+      <c r="AC57" s="19"/>
+      <c r="AD57" s="19"/>
       <c r="AG57" s="19" t="s">
         <v>696</v>
       </c>
+      <c r="AQ57" s="19"/>
+      <c r="AR57" s="19"/>
+      <c r="AS57" s="19"/>
+      <c r="AT57" s="19"/>
+      <c r="AU57" s="19"/>
+      <c r="AV57" s="19"/>
+      <c r="AW57" s="19"/>
+      <c r="AX57" s="19"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0"/>
-      <c r="U58" s="19" t="s">
+      <c r="O58" s="30"/>
+      <c r="U58" s="31" t="s">
         <v>306</v>
       </c>
+      <c r="AB58" s="19"/>
+      <c r="AC58" s="19"/>
+      <c r="AD58" s="19"/>
       <c r="AG58" s="19" t="s">
         <v>697</v>
       </c>
+      <c r="AQ58" s="19"/>
+      <c r="AR58" s="19"/>
+      <c r="AS58" s="19"/>
+      <c r="AT58" s="19"/>
+      <c r="AU58" s="19"/>
+      <c r="AV58" s="19"/>
+      <c r="AW58" s="19"/>
+      <c r="AX58" s="19"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0"/>
-      <c r="U59" s="19" t="s">
+      <c r="O59" s="30"/>
+      <c r="U59" s="31" t="s">
         <v>218</v>
       </c>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="19"/>
       <c r="AG59" s="19" t="s">
         <v>698</v>
       </c>
+      <c r="AQ59" s="19"/>
+      <c r="AR59" s="19"/>
+      <c r="AS59" s="19"/>
+      <c r="AT59" s="19"/>
+      <c r="AU59" s="19"/>
+      <c r="AV59" s="19"/>
+      <c r="AW59" s="19"/>
+      <c r="AX59" s="19"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0"/>
-      <c r="U60" s="19" t="s">
+      <c r="O60" s="30"/>
+      <c r="U60" s="21" t="s">
         <v>699</v>
       </c>
+      <c r="AB60" s="19"/>
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19"/>
       <c r="AG60" s="19" t="s">
         <v>700</v>
       </c>
+      <c r="AQ60" s="19"/>
+      <c r="AR60" s="19"/>
+      <c r="AS60" s="19"/>
+      <c r="AT60" s="19"/>
+      <c r="AU60" s="19"/>
+      <c r="AV60" s="19"/>
+      <c r="AW60" s="19"/>
+      <c r="AX60" s="19"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0"/>
-      <c r="U61" s="19" t="s">
+      <c r="O61" s="30"/>
+      <c r="U61" s="21" t="s">
         <v>701</v>
       </c>
+      <c r="AB61" s="19"/>
+      <c r="AC61" s="19"/>
+      <c r="AD61" s="19"/>
       <c r="AG61" s="19" t="s">
         <v>702</v>
       </c>
+      <c r="AQ61" s="19"/>
+      <c r="AR61" s="19"/>
+      <c r="AS61" s="19"/>
+      <c r="AT61" s="19"/>
+      <c r="AU61" s="19"/>
+      <c r="AV61" s="19"/>
+      <c r="AW61" s="19"/>
+      <c r="AX61" s="19"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0"/>
-      <c r="U62" s="19" t="s">
+      <c r="O62" s="30"/>
+      <c r="U62" s="21" t="s">
         <v>703</v>
       </c>
+      <c r="AB62" s="19"/>
+      <c r="AC62" s="19"/>
+      <c r="AD62" s="19"/>
       <c r="AG62" s="19" t="s">
         <v>704</v>
       </c>
+      <c r="AQ62" s="19"/>
+      <c r="AR62" s="19"/>
+      <c r="AS62" s="19"/>
+      <c r="AT62" s="19"/>
+      <c r="AU62" s="19"/>
+      <c r="AV62" s="19"/>
+      <c r="AW62" s="19"/>
+      <c r="AX62" s="19"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0"/>
+      <c r="O63" s="30"/>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19"/>
       <c r="AG63" s="19" t="s">
         <v>705</v>
       </c>
+      <c r="AQ63" s="19"/>
+      <c r="AR63" s="19"/>
+      <c r="AS63" s="19"/>
+      <c r="AT63" s="19"/>
+      <c r="AU63" s="19"/>
+      <c r="AV63" s="19"/>
+      <c r="AW63" s="19"/>
+      <c r="AX63" s="19"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0"/>
+      <c r="O64" s="30"/>
+      <c r="AB64" s="19"/>
+      <c r="AC64" s="19"/>
+      <c r="AD64" s="19"/>
       <c r="AG64" s="19" t="s">
         <v>706</v>
       </c>
+      <c r="AQ64" s="19"/>
+      <c r="AR64" s="19"/>
+      <c r="AS64" s="19"/>
+      <c r="AT64" s="19"/>
+      <c r="AU64" s="19"/>
+      <c r="AV64" s="19"/>
+      <c r="AW64" s="19"/>
+      <c r="AX64" s="19"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0"/>
+      <c r="O65" s="30"/>
+      <c r="AB65" s="19"/>
+      <c r="AC65" s="19"/>
+      <c r="AD65" s="19"/>
       <c r="AG65" s="19" t="s">
         <v>707</v>
       </c>
+      <c r="AQ65" s="19"/>
+      <c r="AR65" s="19"/>
+      <c r="AS65" s="19"/>
+      <c r="AT65" s="19"/>
+      <c r="AU65" s="19"/>
+      <c r="AV65" s="19"/>
+      <c r="AW65" s="19"/>
+      <c r="AX65" s="19"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0"/>
+      <c r="O66" s="30"/>
+      <c r="AB66" s="19"/>
+      <c r="AC66" s="19"/>
+      <c r="AD66" s="19"/>
       <c r="AG66" s="19" t="s">
         <v>708</v>
       </c>
+      <c r="AQ66" s="19"/>
+      <c r="AR66" s="19"/>
+      <c r="AS66" s="19"/>
+      <c r="AT66" s="19"/>
+      <c r="AU66" s="19"/>
+      <c r="AV66" s="19"/>
+      <c r="AW66" s="19"/>
+      <c r="AX66" s="19"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
+      <c r="O67" s="30"/>
+      <c r="AB67" s="19"/>
+      <c r="AC67" s="19"/>
+      <c r="AD67" s="19"/>
       <c r="AG67" s="19" t="s">
         <v>709</v>
       </c>
+      <c r="AQ67" s="19"/>
+      <c r="AR67" s="19"/>
+      <c r="AS67" s="19"/>
+      <c r="AT67" s="19"/>
+      <c r="AU67" s="19"/>
+      <c r="AV67" s="19"/>
+      <c r="AW67" s="19"/>
+      <c r="AX67" s="19"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0"/>
+      <c r="O68" s="30"/>
+      <c r="AB68" s="19"/>
+      <c r="AC68" s="19"/>
+      <c r="AD68" s="19"/>
       <c r="AG68" s="19" t="s">
         <v>710</v>
       </c>
+      <c r="AQ68" s="19"/>
+      <c r="AR68" s="19"/>
+      <c r="AS68" s="19"/>
+      <c r="AT68" s="19"/>
+      <c r="AU68" s="19"/>
+      <c r="AV68" s="19"/>
+      <c r="AW68" s="19"/>
+      <c r="AX68" s="19"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0"/>
+      <c r="O69" s="30"/>
+      <c r="AB69" s="19"/>
+      <c r="AC69" s="19"/>
+      <c r="AD69" s="19"/>
       <c r="AG69" s="19" t="s">
         <v>711</v>
       </c>
+      <c r="AQ69" s="19"/>
+      <c r="AR69" s="19"/>
+      <c r="AS69" s="19"/>
+      <c r="AT69" s="19"/>
+      <c r="AU69" s="19"/>
+      <c r="AV69" s="19"/>
+      <c r="AW69" s="19"/>
+      <c r="AX69" s="19"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
+      <c r="O70" s="30"/>
+      <c r="AB70" s="19"/>
+      <c r="AC70" s="19"/>
+      <c r="AD70" s="19"/>
       <c r="AG70" s="19" t="s">
         <v>712</v>
       </c>
+      <c r="AQ70" s="19"/>
+      <c r="AR70" s="19"/>
+      <c r="AS70" s="19"/>
+      <c r="AT70" s="19"/>
+      <c r="AU70" s="19"/>
+      <c r="AV70" s="19"/>
+      <c r="AW70" s="19"/>
+      <c r="AX70" s="19"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0"/>
+      <c r="O71" s="30"/>
+      <c r="AB71" s="19"/>
+      <c r="AC71" s="19"/>
+      <c r="AD71" s="19"/>
       <c r="AG71" s="19" t="s">
         <v>713</v>
       </c>
+      <c r="AQ71" s="19"/>
+      <c r="AR71" s="19"/>
+      <c r="AS71" s="19"/>
+      <c r="AT71" s="19"/>
+      <c r="AU71" s="19"/>
+      <c r="AV71" s="19"/>
+      <c r="AW71" s="19"/>
+      <c r="AX71" s="19"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0"/>
+      <c r="O72" s="30"/>
+      <c r="AB72" s="19"/>
+      <c r="AC72" s="19"/>
+      <c r="AD72" s="19"/>
       <c r="AG72" s="19" t="s">
         <v>714</v>
       </c>
+      <c r="AQ72" s="19"/>
+      <c r="AR72" s="19"/>
+      <c r="AS72" s="19"/>
+      <c r="AT72" s="19"/>
+      <c r="AU72" s="19"/>
+      <c r="AV72" s="19"/>
+      <c r="AW72" s="19"/>
+      <c r="AX72" s="19"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0"/>
+      <c r="O73" s="30"/>
+      <c r="AB73" s="19"/>
+      <c r="AC73" s="19"/>
+      <c r="AD73" s="19"/>
       <c r="AG73" s="19" t="s">
         <v>715</v>
       </c>
+      <c r="AQ73" s="19"/>
+      <c r="AR73" s="19"/>
+      <c r="AS73" s="19"/>
+      <c r="AT73" s="19"/>
+      <c r="AU73" s="19"/>
+      <c r="AV73" s="19"/>
+      <c r="AW73" s="19"/>
+      <c r="AX73" s="19"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0"/>
+      <c r="O74" s="30"/>
+      <c r="AB74" s="19"/>
+      <c r="AC74" s="19"/>
+      <c r="AD74" s="19"/>
       <c r="AG74" s="19" t="s">
         <v>716</v>
       </c>
+      <c r="AQ74" s="19"/>
+      <c r="AR74" s="19"/>
+      <c r="AS74" s="19"/>
+      <c r="AT74" s="19"/>
+      <c r="AU74" s="19"/>
+      <c r="AV74" s="19"/>
+      <c r="AW74" s="19"/>
+      <c r="AX74" s="19"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0"/>
+      <c r="O75" s="30"/>
+      <c r="AB75" s="19"/>
+      <c r="AC75" s="19"/>
+      <c r="AD75" s="19"/>
       <c r="AG75" s="19" t="s">
         <v>717</v>
       </c>
+      <c r="AQ75" s="19"/>
+      <c r="AR75" s="19"/>
+      <c r="AS75" s="19"/>
+      <c r="AT75" s="19"/>
+      <c r="AU75" s="19"/>
+      <c r="AV75" s="19"/>
+      <c r="AW75" s="19"/>
+      <c r="AX75" s="19"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0"/>
+      <c r="O76" s="30"/>
+      <c r="AB76" s="19"/>
+      <c r="AC76" s="19"/>
+      <c r="AD76" s="19"/>
       <c r="AG76" s="19" t="s">
         <v>718</v>
       </c>
+      <c r="AQ76" s="19"/>
+      <c r="AR76" s="19"/>
+      <c r="AS76" s="19"/>
+      <c r="AT76" s="19"/>
+      <c r="AU76" s="19"/>
+      <c r="AV76" s="19"/>
+      <c r="AW76" s="19"/>
+      <c r="AX76" s="19"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0"/>
+      <c r="O77" s="30"/>
+      <c r="AB77" s="19"/>
+      <c r="AC77" s="19"/>
+      <c r="AD77" s="19"/>
       <c r="AG77" s="19" t="s">
         <v>719</v>
       </c>
+      <c r="AQ77" s="19"/>
+      <c r="AR77" s="19"/>
+      <c r="AS77" s="19"/>
+      <c r="AT77" s="19"/>
+      <c r="AU77" s="19"/>
+      <c r="AV77" s="19"/>
+      <c r="AW77" s="19"/>
+      <c r="AX77" s="19"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0"/>
+      <c r="O78" s="30"/>
+      <c r="AB78" s="19"/>
+      <c r="AC78" s="19"/>
+      <c r="AD78" s="19"/>
       <c r="AG78" s="19" t="s">
         <v>720</v>
       </c>
+      <c r="AQ78" s="19"/>
+      <c r="AR78" s="19"/>
+      <c r="AS78" s="19"/>
+      <c r="AT78" s="19"/>
+      <c r="AU78" s="19"/>
+      <c r="AV78" s="19"/>
+      <c r="AW78" s="19"/>
+      <c r="AX78" s="19"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="0"/>
+      <c r="O79" s="30"/>
+      <c r="AB79" s="19"/>
+      <c r="AC79" s="19"/>
+      <c r="AD79" s="19"/>
       <c r="AG79" s="19" t="s">
         <v>721</v>
       </c>
+      <c r="AQ79" s="19"/>
+      <c r="AR79" s="19"/>
+      <c r="AS79" s="19"/>
+      <c r="AT79" s="19"/>
+      <c r="AU79" s="19"/>
+      <c r="AV79" s="19"/>
+      <c r="AW79" s="19"/>
+      <c r="AX79" s="19"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="0"/>
+      <c r="O80" s="30"/>
+      <c r="AB80" s="19"/>
+      <c r="AC80" s="19"/>
+      <c r="AD80" s="19"/>
       <c r="AG80" s="19" t="s">
         <v>722</v>
       </c>
+      <c r="AQ80" s="19"/>
+      <c r="AR80" s="19"/>
+      <c r="AS80" s="19"/>
+      <c r="AT80" s="19"/>
+      <c r="AU80" s="19"/>
+      <c r="AV80" s="19"/>
+      <c r="AW80" s="19"/>
+      <c r="AX80" s="19"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0"/>
+      <c r="O81" s="30"/>
+      <c r="AB81" s="19"/>
+      <c r="AC81" s="19"/>
+      <c r="AD81" s="19"/>
       <c r="AG81" s="19" t="s">
         <v>723</v>
       </c>
+      <c r="AQ81" s="19"/>
+      <c r="AR81" s="19"/>
+      <c r="AS81" s="19"/>
+      <c r="AT81" s="19"/>
+      <c r="AU81" s="19"/>
+      <c r="AV81" s="19"/>
+      <c r="AW81" s="19"/>
+      <c r="AX81" s="19"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0"/>
+      <c r="O82" s="30"/>
+      <c r="AB82" s="19"/>
+      <c r="AC82" s="19"/>
+      <c r="AD82" s="19"/>
       <c r="AG82" s="19" t="s">
         <v>724</v>
       </c>
+      <c r="AQ82" s="19"/>
+      <c r="AR82" s="19"/>
+      <c r="AS82" s="19"/>
+      <c r="AT82" s="19"/>
+      <c r="AU82" s="19"/>
+      <c r="AV82" s="19"/>
+      <c r="AW82" s="19"/>
+      <c r="AX82" s="19"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0"/>
+      <c r="O83" s="30"/>
+      <c r="AB83" s="19"/>
+      <c r="AC83" s="19"/>
+      <c r="AD83" s="19"/>
       <c r="AG83" s="19" t="s">
         <v>725</v>
       </c>
+      <c r="AQ83" s="19"/>
+      <c r="AR83" s="19"/>
+      <c r="AS83" s="19"/>
+      <c r="AT83" s="19"/>
+      <c r="AU83" s="19"/>
+      <c r="AV83" s="19"/>
+      <c r="AW83" s="19"/>
+      <c r="AX83" s="19"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0"/>
+      <c r="O84" s="30"/>
+      <c r="AB84" s="19"/>
+      <c r="AC84" s="19"/>
+      <c r="AD84" s="19"/>
       <c r="AG84" s="19" t="s">
         <v>726</v>
       </c>
+      <c r="AQ84" s="19"/>
+      <c r="AR84" s="19"/>
+      <c r="AS84" s="19"/>
+      <c r="AT84" s="19"/>
+      <c r="AU84" s="19"/>
+      <c r="AV84" s="19"/>
+      <c r="AW84" s="19"/>
+      <c r="AX84" s="19"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="0"/>
+      <c r="O85" s="30"/>
+      <c r="AB85" s="19"/>
+      <c r="AC85" s="19"/>
+      <c r="AD85" s="19"/>
       <c r="AG85" s="19" t="s">
         <v>727</v>
       </c>
+      <c r="AQ85" s="19"/>
+      <c r="AR85" s="19"/>
+      <c r="AS85" s="19"/>
+      <c r="AT85" s="19"/>
+      <c r="AU85" s="19"/>
+      <c r="AV85" s="19"/>
+      <c r="AW85" s="19"/>
+      <c r="AX85" s="19"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="0"/>
+      <c r="O86" s="30"/>
+      <c r="AB86" s="19"/>
+      <c r="AC86" s="19"/>
+      <c r="AD86" s="19"/>
       <c r="AG86" s="19" t="s">
         <v>728</v>
       </c>
+      <c r="AQ86" s="19"/>
+      <c r="AR86" s="19"/>
+      <c r="AS86" s="19"/>
+      <c r="AT86" s="19"/>
+      <c r="AU86" s="19"/>
+      <c r="AV86" s="19"/>
+      <c r="AW86" s="19"/>
+      <c r="AX86" s="19"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0"/>
+      <c r="O87" s="30"/>
+      <c r="AB87" s="19"/>
+      <c r="AC87" s="19"/>
+      <c r="AD87" s="19"/>
       <c r="AG87" s="19" t="s">
         <v>729</v>
       </c>
+      <c r="AQ87" s="19"/>
+      <c r="AR87" s="19"/>
+      <c r="AS87" s="19"/>
+      <c r="AT87" s="19"/>
+      <c r="AU87" s="19"/>
+      <c r="AV87" s="19"/>
+      <c r="AW87" s="19"/>
+      <c r="AX87" s="19"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="0"/>
+      <c r="O88" s="30"/>
+      <c r="AB88" s="19"/>
+      <c r="AC88" s="19"/>
+      <c r="AD88" s="19"/>
       <c r="AG88" s="19" t="s">
         <v>730</v>
       </c>
+      <c r="AQ88" s="19"/>
+      <c r="AR88" s="19"/>
+      <c r="AS88" s="19"/>
+      <c r="AT88" s="19"/>
+      <c r="AU88" s="19"/>
+      <c r="AV88" s="19"/>
+      <c r="AW88" s="19"/>
+      <c r="AX88" s="19"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0"/>
+      <c r="O89" s="30"/>
+      <c r="AB89" s="19"/>
+      <c r="AC89" s="19"/>
+      <c r="AD89" s="19"/>
       <c r="AG89" s="19" t="s">
         <v>731</v>
       </c>
+      <c r="AQ89" s="19"/>
+      <c r="AR89" s="19"/>
+      <c r="AS89" s="19"/>
+      <c r="AT89" s="19"/>
+      <c r="AU89" s="19"/>
+      <c r="AV89" s="19"/>
+      <c r="AW89" s="19"/>
+      <c r="AX89" s="19"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="0"/>
+      <c r="O90" s="30"/>
+      <c r="AB90" s="19"/>
+      <c r="AC90" s="19"/>
+      <c r="AD90" s="19"/>
       <c r="AG90" s="19" t="s">
         <v>732</v>
       </c>
+      <c r="AQ90" s="19"/>
+      <c r="AR90" s="19"/>
+      <c r="AS90" s="19"/>
+      <c r="AT90" s="19"/>
+      <c r="AU90" s="19"/>
+      <c r="AV90" s="19"/>
+      <c r="AW90" s="19"/>
+      <c r="AX90" s="19"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="0"/>
+      <c r="O91" s="30"/>
+      <c r="AB91" s="19"/>
+      <c r="AC91" s="19"/>
+      <c r="AD91" s="19"/>
       <c r="AG91" s="19" t="s">
         <v>733</v>
       </c>
+      <c r="AQ91" s="19"/>
+      <c r="AR91" s="19"/>
+      <c r="AS91" s="19"/>
+      <c r="AT91" s="19"/>
+      <c r="AU91" s="19"/>
+      <c r="AV91" s="19"/>
+      <c r="AW91" s="19"/>
+      <c r="AX91" s="19"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="0"/>
+      <c r="O92" s="30"/>
+      <c r="AB92" s="19"/>
+      <c r="AC92" s="19"/>
+      <c r="AD92" s="19"/>
       <c r="AG92" s="19" t="s">
         <v>734</v>
       </c>
+      <c r="AQ92" s="19"/>
+      <c r="AR92" s="19"/>
+      <c r="AS92" s="19"/>
+      <c r="AT92" s="19"/>
+      <c r="AU92" s="19"/>
+      <c r="AV92" s="19"/>
+      <c r="AW92" s="19"/>
+      <c r="AX92" s="19"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="0"/>
+      <c r="O93" s="30"/>
+      <c r="AB93" s="19"/>
+      <c r="AC93" s="19"/>
+      <c r="AD93" s="19"/>
       <c r="AG93" s="19" t="s">
         <v>735</v>
       </c>
+      <c r="AQ93" s="19"/>
+      <c r="AR93" s="19"/>
+      <c r="AS93" s="19"/>
+      <c r="AT93" s="19"/>
+      <c r="AU93" s="19"/>
+      <c r="AV93" s="19"/>
+      <c r="AW93" s="19"/>
+      <c r="AX93" s="19"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="0"/>
+      <c r="O94" s="30"/>
+      <c r="AB94" s="19"/>
+      <c r="AC94" s="19"/>
+      <c r="AD94" s="19"/>
+      <c r="AQ94" s="19"/>
+      <c r="AR94" s="19"/>
+      <c r="AS94" s="19"/>
+      <c r="AT94" s="19"/>
+      <c r="AU94" s="19"/>
+      <c r="AV94" s="19"/>
+      <c r="AW94" s="19"/>
+      <c r="AX94" s="19"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="0"/>
+      <c r="O95" s="30"/>
+      <c r="AB95" s="19"/>
+      <c r="AC95" s="19"/>
+      <c r="AD95" s="19"/>
+      <c r="AQ95" s="19"/>
+      <c r="AR95" s="19"/>
+      <c r="AS95" s="19"/>
+      <c r="AT95" s="19"/>
+      <c r="AU95" s="19"/>
+      <c r="AV95" s="19"/>
+      <c r="AW95" s="19"/>
+      <c r="AX95" s="19"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="0"/>
+      <c r="O96" s="30"/>
+      <c r="AB96" s="19"/>
+      <c r="AC96" s="19"/>
+      <c r="AD96" s="19"/>
+      <c r="AQ96" s="19"/>
+      <c r="AR96" s="19"/>
+      <c r="AS96" s="19"/>
+      <c r="AT96" s="19"/>
+      <c r="AU96" s="19"/>
+      <c r="AV96" s="19"/>
+      <c r="AW96" s="19"/>
+      <c r="AX96" s="19"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="0"/>
+      <c r="O97" s="30"/>
+      <c r="AB97" s="19"/>
+      <c r="AC97" s="19"/>
+      <c r="AD97" s="19"/>
+      <c r="AQ97" s="19"/>
+      <c r="AR97" s="19"/>
+      <c r="AS97" s="19"/>
+      <c r="AT97" s="19"/>
+      <c r="AU97" s="19"/>
+      <c r="AV97" s="19"/>
+      <c r="AW97" s="19"/>
+      <c r="AX97" s="19"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="0"/>
+      <c r="O98" s="30"/>
+      <c r="AB98" s="19"/>
+      <c r="AC98" s="19"/>
+      <c r="AD98" s="19"/>
+      <c r="AQ98" s="19"/>
+      <c r="AR98" s="19"/>
+      <c r="AS98" s="19"/>
+      <c r="AT98" s="19"/>
+      <c r="AU98" s="19"/>
+      <c r="AV98" s="19"/>
+      <c r="AW98" s="19"/>
+      <c r="AX98" s="19"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="0"/>
+      <c r="O99" s="30"/>
+      <c r="AB99" s="19"/>
+      <c r="AC99" s="19"/>
+      <c r="AD99" s="19"/>
+      <c r="AQ99" s="19"/>
+      <c r="AR99" s="19"/>
+      <c r="AS99" s="19"/>
+      <c r="AT99" s="19"/>
+      <c r="AU99" s="19"/>
+      <c r="AV99" s="19"/>
+      <c r="AW99" s="19"/>
+      <c r="AX99" s="19"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="0"/>
+      <c r="O100" s="30"/>
+      <c r="AB100" s="19"/>
+      <c r="AC100" s="19"/>
+      <c r="AD100" s="19"/>
+      <c r="AQ100" s="19"/>
+      <c r="AR100" s="19"/>
+      <c r="AS100" s="19"/>
+      <c r="AT100" s="19"/>
+      <c r="AU100" s="19"/>
+      <c r="AV100" s="19"/>
+      <c r="AW100" s="19"/>
+      <c r="AX100" s="19"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="0"/>
@@ -33330,7 +34475,7 @@
       <c r="A103" s="0"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P2:ZZ10 P29:ZZ1048576 A72:A1048576 BF11:ZZ28 P11:BD28 BE13:BE17 BE19:BE24 BE26:BE28 B2:B22 A2:A8 C2:C5 D2:D4 E2:E5 H2:I4 F2:F4 G2:G7 J2:J5 K2:K6 L2:L12 A17:A44 M2:M9 A13 N2:N20 A11 O2">
+  <conditionalFormatting sqref="A2:AZ100">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/TPatches/TPatches.xlsx
+++ b/TPatches/TPatches.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="List of patches" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Animal list" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="DAR List" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="779">
   <si>
     <t xml:space="preserve">Patch name</t>
   </si>
@@ -350,6 +351,26 @@
     <t xml:space="preserve">Elephants</t>
   </si>
   <si>
+    <t xml:space="preserve">RimStarve (Continued)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spidercamp's Dog Pack (Continued)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZWAnimals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's Have a Cat!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomes! Atolls Playable Preview</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cheetah</t>
   </si>
   <si>
@@ -512,6 +533,15 @@
     <t xml:space="preserve">Cave Troll</t>
   </si>
   <si>
+    <t xml:space="preserve">Beefalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghan Hound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coyote</t>
   </si>
   <si>
@@ -656,6 +686,15 @@
     <t xml:space="preserve">Ash hopper</t>
   </si>
   <si>
+    <t xml:space="preserve">Rabbit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Border Collie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Crocodile</t>
   </si>
   <si>
@@ -791,6 +830,15 @@
     <t xml:space="preserve">Ash panther</t>
   </si>
   <si>
+    <t xml:space="preserve">Hound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borzoi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown Tabby</t>
+  </si>
+  <si>
     <t xml:space="preserve">British shorthair</t>
   </si>
   <si>
@@ -905,6 +953,15 @@
     <t xml:space="preserve">Bantam guar</t>
   </si>
   <si>
+    <t xml:space="preserve">Volt Goat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bull Mastiff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American short hair</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hippopotamus</t>
   </si>
   <si>
@@ -938,6 +995,9 @@
     <t xml:space="preserve">Brava cow</t>
   </si>
   <si>
+    <t xml:space="preserve">Weasel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leopardgecko</t>
   </si>
   <si>
@@ -1013,6 +1073,12 @@
     <t xml:space="preserve">Clannfear</t>
   </si>
   <si>
+    <t xml:space="preserve">Bull Terrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Widebeest</t>
   </si>
   <si>
@@ -1100,6 +1166,12 @@
     <t xml:space="preserve">Cliff racer</t>
   </si>
   <si>
+    <t xml:space="preserve">Caucasian Shepherd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siamese</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zebra</t>
   </si>
   <si>
@@ -1163,6 +1235,12 @@
     <t xml:space="preserve">Daedroth</t>
   </si>
   <si>
+    <t xml:space="preserve">Chow Chow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persian</t>
+  </si>
+  <si>
     <t xml:space="preserve">German shepherd</t>
   </si>
   <si>
@@ -1226,6 +1304,15 @@
     <t xml:space="preserve">Durzog</t>
   </si>
   <si>
+    <t xml:space="preserve">Collie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leopard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanese Bob tail</t>
+  </si>
+  <si>
     <t xml:space="preserve">Great dane</t>
   </si>
   <si>
@@ -1286,6 +1373,12 @@
     <t xml:space="preserve">Guar</t>
   </si>
   <si>
+    <t xml:space="preserve">Doberman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scottish Fold</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maine coon</t>
   </si>
   <si>
@@ -1343,6 +1436,15 @@
     <t xml:space="preserve">Albino guar</t>
   </si>
   <si>
+    <t xml:space="preserve">Golden Retriever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mammoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scottish Fold Long Hair</t>
+  </si>
+  <si>
     <t xml:space="preserve">Munchkin cat</t>
   </si>
   <si>
@@ -1388,6 +1490,12 @@
     <t xml:space="preserve">Tiger guar</t>
   </si>
   <si>
+    <t xml:space="preserve">Greyhound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaineCoon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norwegian forest</t>
   </si>
   <si>
@@ -1424,6 +1532,12 @@
     <t xml:space="preserve">Hunger</t>
   </si>
   <si>
+    <t xml:space="preserve">Old English Sheepdog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwegian Forest Cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Persian cat</t>
   </si>
   <si>
@@ -1463,6 +1577,9 @@
     <t xml:space="preserve">Kwama forager</t>
   </si>
   <si>
+    <t xml:space="preserve">Saint Bernard</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poodle</t>
   </si>
   <si>
@@ -1502,6 +1619,9 @@
     <t xml:space="preserve">Kwama scrib</t>
   </si>
   <si>
+    <t xml:space="preserve">Standard Poodle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pug</t>
   </si>
   <si>
@@ -1541,6 +1661,9 @@
     <t xml:space="preserve">Kagouti</t>
   </si>
   <si>
+    <t xml:space="preserve">Miniature Schnauzer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rottweiler</t>
   </si>
   <si>
@@ -1577,6 +1700,9 @@
     <t xml:space="preserve">Netch</t>
   </si>
   <si>
+    <t xml:space="preserve">Miniature Dachshund</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shih-tzu</t>
   </si>
   <si>
@@ -1613,6 +1739,9 @@
     <t xml:space="preserve">Retching netch</t>
   </si>
   <si>
+    <t xml:space="preserve">Newfoundland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Siamese cat</t>
   </si>
   <si>
@@ -1677,6 +1806,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nix ox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welsh Corgi</t>
   </si>
   <si>
     <t xml:space="preserve">Sphynx cat</t>
@@ -2238,13 +2370,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2269,7 +2401,7 @@
       <color rgb="FFC5000B"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -2277,7 +2409,7 @@
       <color rgb="FFC5000B"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -2285,7 +2417,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -2293,21 +2425,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <u val="single"/>
@@ -2315,7 +2447,7 @@
       <color rgb="FF1155CC"/>
       <name val="Cambria"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -2323,14 +2455,37 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFD500F9"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBDBDBD"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF9100"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2343,7 +2498,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFBDBDBD"/>
       </patternFill>
     </fill>
     <fill>
@@ -2432,7 +2587,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2517,10 +2672,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2541,10 +2692,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2561,12 +2708,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2584,7 +2747,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
+        <charset val="204"/>
         <family val="0"/>
         <b val="1"/>
         <color rgb="FFC5000B"/>
@@ -2599,7 +2762,7 @@
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFD500F9"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
@@ -2607,7 +2770,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFBDBDBD"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -2616,7 +2779,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF1155CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2637,7 +2800,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF9100"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -2669,14 +2832,14 @@
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="79.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30843,19 +31006,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BG103"/>
+  <dimension ref="A1:BM103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="AC30" activeCellId="0" sqref="AC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.52"/>
@@ -30870,7 +31033,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="19" width="12.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="19" width="6.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="19" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="21" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="19" width="16.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="19" width="20.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="23" style="19" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="19" width="18"/>
@@ -30885,1410 +31048,1549 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="19" width="20.03"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="42" min="40" style="19" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="20.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="51" style="19" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="60" min="51" style="19" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="19" width="17.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="63" min="62" style="19" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="19" width="19.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="19" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="true" ht="43.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="23" customFormat="true" ht="43.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="X1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AC1" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AD1" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AE1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AF1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AG1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AH1" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="22" t="s">
+      <c r="AI1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AK1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AL1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AM1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="AN1" s="22" t="s">
+      <c r="AN1" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="AO1" s="22" t="s">
+      <c r="AO1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="AP1" s="22" t="s">
+      <c r="AP1" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AQ1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AR1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="AS1" s="22" t="s">
+      <c r="AS1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="AT1" s="22" t="s">
+      <c r="AT1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="AU1" s="22" t="s">
+      <c r="AU1" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="AV1" s="22" t="s">
+      <c r="AV1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="AW1" s="22" t="s">
+      <c r="AW1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="AX1" s="22" t="s">
+      <c r="AX1" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="AY1" s="22" t="s">
+      <c r="AY1" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="AZ1" s="22" t="s">
+      <c r="AZ1" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="BA1" s="22" t="s">
+      <c r="BA1" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="BB1" s="22" t="s">
+      <c r="BB1" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="BC1" s="22" t="s">
+      <c r="BC1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="BD1" s="22" t="s">
+      <c r="BD1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="BE1" s="22" t="s">
+      <c r="BE1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="BF1" s="22" t="s">
+      <c r="BF1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BG1" s="22" t="s">
+      <c r="BG1" s="21" t="s">
         <v>108</v>
       </c>
+      <c r="BH1" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI1" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="BL1" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM1" s="21" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="2" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>120</v>
       </c>
+      <c r="G2" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>126</v>
+      </c>
       <c r="M2" s="19" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="T2" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="O2" s="25" t="s">
         <v>129</v>
       </c>
+      <c r="P2" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="V2" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="W2" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC2" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD2" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE2" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="X2" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y2" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z2" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA2" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB2" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC2" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD2" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE2" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="AF2" s="19" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AG2" s="19" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AH2" s="19" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AI2" s="19" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AJ2" s="19" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AK2" s="19" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AL2" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM2" s="29" t="s">
-        <v>146</v>
+        <v>151</v>
+      </c>
+      <c r="AM2" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="AN2" s="19" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AP2" s="19" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AQ2" s="19" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AR2" s="19" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AS2" s="19" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AT2" s="19" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AU2" s="19" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AV2" s="19" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AW2" s="19" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AY2" s="19" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AZ2" s="19" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BA2" s="19" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="BB2" s="19" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="BC2" s="19" t="s">
         <v>105</v>
       </c>
       <c r="BD2" s="19" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="BE2" s="19" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="BF2" s="19" t="s">
-        <v>162</v>
+        <v>168</v>
+      </c>
+      <c r="BH2" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="BI2" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="BJ2" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK2" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL2" s="19" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="J3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>174</v>
       </c>
+      <c r="D3" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="M3" s="19" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="P3" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="W3" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y3" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="Q3" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="U3" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="V3" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="W3" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="X3" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y3" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z3" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA3" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>187</v>
+      <c r="Z3" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC3" s="31" t="s">
+        <v>196</v>
       </c>
       <c r="AD3" s="19" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="AE3" s="19" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AF3" s="19" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AG3" s="19" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="AH3" s="19" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="AI3" s="19" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="AJ3" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK3" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL3" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM3" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN3" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="AP3" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ3" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR3" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="AS3" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT3" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV3" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW3" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY3" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ3" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB3" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="BD3" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="BE3" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="BH3" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="BI3" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="BK3" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL3" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="O4" s="28"/>
+      <c r="P4" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="U4" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="W4" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="X4" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y4" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z4" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA4" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC4" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD4" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE4" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF4" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG4" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH4" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI4" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ4" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK4" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL4" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM4" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="AN4" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP4" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ4" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="AR4" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="AS4" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT4" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV4" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="AW4" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="AY4" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="AZ4" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="BB4" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="BD4" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="BE4" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="BH4" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="BI4" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="BK4" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL4" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="AK3" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="AL3" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM3" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN3" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP3" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="AQ3" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR3" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="AS3" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="AT3" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="AW3" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="AY3" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="AZ3" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="BB3" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="BD3" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="BE3" s="19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="O4" s="30"/>
-      <c r="P4" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q4" s="25" t="s">
+      <c r="B5" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="O5" s="28"/>
+      <c r="P5" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="W5" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y5" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="R4" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="T4" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="U4" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="V4" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="W4" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="X4" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y4" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z4" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA4" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC4" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD4" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE4" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF4" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG4" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH4" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI4" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ4" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK4" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL4" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM4" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN4" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="AP4" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="AQ4" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="AR4" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS4" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="AT4" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="AV4" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="AW4" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="AY4" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="AZ4" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="BB4" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="BD4" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="BE4" s="19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q5" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="R5" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="T5" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="U5" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="V5" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="W5" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="X5" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y5" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z5" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA5" s="25" t="s">
-        <v>272</v>
+      <c r="Z5" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA5" s="24" t="s">
+        <v>287</v>
       </c>
       <c r="AB5" s="19"/>
       <c r="AC5" s="19" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="AD5" s="19" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AE5" s="19" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AF5" s="19" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="AG5" s="19" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AH5" s="19" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AI5" s="19" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="AJ5" s="19" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="AK5" s="19" t="s">
         <v>87</v>
       </c>
       <c r="AL5" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="AM5" s="29" t="s">
-        <v>281</v>
+        <v>295</v>
+      </c>
+      <c r="AM5" s="27" t="s">
+        <v>296</v>
       </c>
       <c r="AN5" s="19" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="AP5" s="19" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="AQ5" s="19" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="AR5" s="19" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="AS5" s="19" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="AT5" s="19"/>
       <c r="AU5" s="19"/>
       <c r="AV5" s="19" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="AW5" s="19" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="AX5" s="19"/>
       <c r="AY5" s="19" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="AZ5" s="19" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="BB5" s="19" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="BD5" s="19" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="BE5" s="19" t="s">
-        <v>293</v>
+        <v>308</v>
+      </c>
+      <c r="BH5" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="BI5" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="BK5" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="BL5" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>298</v>
+      <c r="A6" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="U6" s="21" t="s">
-        <v>303</v>
+        <v>318</v>
+      </c>
+      <c r="O6" s="28"/>
+      <c r="P6" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>321</v>
       </c>
       <c r="V6" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="X6" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y6" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z6" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA6" s="25" t="s">
-        <v>308</v>
+        <v>322</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="X6" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y6" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z6" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA6" s="24" t="s">
+        <v>327</v>
       </c>
       <c r="AB6" s="19"/>
       <c r="AC6" s="19" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="AD6" s="19" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="AE6" s="19" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="AG6" s="19" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="AH6" s="19" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="AI6" s="19" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="AJ6" s="19" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="AK6" s="19" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="AL6" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="AM6" s="29" t="s">
-        <v>318</v>
+        <v>336</v>
+      </c>
+      <c r="AM6" s="27" t="s">
+        <v>337</v>
       </c>
       <c r="AN6" s="19" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="AP6" s="19" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="AQ6" s="19" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="AR6" s="19" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="AS6" s="19" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="AT6" s="19"/>
       <c r="AU6" s="19"/>
       <c r="AV6" s="19" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="AW6" s="19" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="AX6" s="19"/>
       <c r="AY6" s="19" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="BB6" s="19" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="BD6" s="19" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="BE6" s="19" t="s">
-        <v>329</v>
+        <v>348</v>
+      </c>
+      <c r="BI6" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="BK6" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="BL6" s="19" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>332</v>
+      <c r="A7" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>353</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="O7" s="30"/>
+        <v>355</v>
+      </c>
+      <c r="O7" s="28"/>
       <c r="P7" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q7" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="U7" s="21" t="s">
-        <v>337</v>
+        <v>356</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="U7" s="19" t="s">
+        <v>358</v>
       </c>
       <c r="V7" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="X7" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y7" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA7" s="25" t="s">
-        <v>341</v>
+        <v>359</v>
+      </c>
+      <c r="X7" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y7" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA7" s="24" t="s">
+        <v>362</v>
       </c>
       <c r="AB7" s="19"/>
       <c r="AC7" s="19" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="AD7" s="19" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="AE7" s="19" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AG7" s="19" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="AH7" s="19" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="AI7" s="19" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="AJ7" s="19" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="AK7" s="19" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="AL7" s="19" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="AN7" s="19" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="AP7" s="19" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="AQ7" s="19" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="AR7" s="19" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="AS7" s="19" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="AT7" s="19"/>
       <c r="AU7" s="19"/>
       <c r="AV7" s="19" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="AW7" s="19" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="AX7" s="19"/>
       <c r="AY7" s="19" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="BE7" s="19" t="s">
-        <v>358</v>
+        <v>379</v>
+      </c>
+      <c r="BI7" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="BK7" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="BL7" s="34" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>361</v>
+      <c r="A8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>384</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="O8" s="30"/>
+        <v>385</v>
+      </c>
+      <c r="O8" s="28"/>
       <c r="P8" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="U8" s="31" t="s">
-        <v>168</v>
+        <v>386</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="U8" s="29" t="s">
+        <v>177</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="AB8" s="19"/>
-      <c r="AC8" s="19" t="s">
-        <v>365</v>
+      <c r="AC8" s="31" t="s">
+        <v>388</v>
       </c>
       <c r="AD8" s="19" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="AH8" s="19" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="AJ8" s="19" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AK8" s="19" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="AL8" s="19" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="AN8" s="19" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="AP8" s="19" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="AQ8" s="19" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="AR8" s="19" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="AS8" s="19"/>
       <c r="AT8" s="19"/>
       <c r="AU8" s="19"/>
       <c r="AV8" s="19"/>
       <c r="AW8" s="19" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="AX8" s="19"/>
       <c r="AY8" s="19" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="BE8" s="19" t="s">
-        <v>379</v>
+        <v>402</v>
+      </c>
+      <c r="BI8" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="BK8" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="BL8" s="34" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
-      <c r="B9" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>381</v>
+      <c r="B9" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>406</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="O9" s="30"/>
+        <v>408</v>
+      </c>
+      <c r="O9" s="28"/>
       <c r="P9" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="U9" s="31" t="s">
-        <v>174</v>
+        <v>409</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>183</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="AB9" s="19"/>
-      <c r="AC9" s="19" t="s">
-        <v>386</v>
+      <c r="AC9" s="31" t="s">
+        <v>411</v>
       </c>
       <c r="AD9" s="19" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="AJ9" s="19" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="AK9" s="19" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="AL9" s="19" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="AP9" s="19" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="AQ9" s="19" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="AR9" s="19" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="AS9" s="19"/>
       <c r="AT9" s="19"/>
       <c r="AU9" s="19"/>
       <c r="AV9" s="19"/>
       <c r="AW9" s="19" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="AX9" s="19"/>
       <c r="AY9" s="19" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="BE9" s="19" t="s">
-        <v>400</v>
+        <v>425</v>
+      </c>
+      <c r="BI9" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="BK9" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="BL9" s="19" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
-      <c r="B10" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>402</v>
+      <c r="B10" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>430</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="O10" s="30"/>
+        <v>431</v>
+      </c>
+      <c r="O10" s="28"/>
       <c r="P10" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="U10" s="21" t="s">
-        <v>405</v>
+        <v>432</v>
+      </c>
+      <c r="U10" s="19" t="s">
+        <v>433</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="AB10" s="19"/>
       <c r="AC10" s="19" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="AD10" s="19" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="AE10" s="19" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="AG10" s="19" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="AJ10" s="19" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="AK10" s="19" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="AL10" s="19" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="AQ10" s="19" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="AR10" s="19" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="AS10" s="19"/>
       <c r="AT10" s="19"/>
       <c r="AU10" s="19"/>
       <c r="AV10" s="19"/>
       <c r="AW10" s="19" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="AX10" s="19"/>
       <c r="AY10" s="19" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="BE10" s="19" t="s">
-        <v>420</v>
+        <v>448</v>
+      </c>
+      <c r="BI10" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="BK10" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL10" s="19" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
-      <c r="B11" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>422</v>
+      <c r="B11" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>452</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="O11" s="30"/>
+        <v>453</v>
+      </c>
+      <c r="O11" s="28"/>
       <c r="P11" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="U11" s="31" t="s">
-        <v>109</v>
+        <v>454</v>
+      </c>
+      <c r="U11" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="AB11" s="19"/>
-      <c r="AC11" s="19" t="s">
-        <v>426</v>
+      <c r="AC11" s="31" t="s">
+        <v>456</v>
       </c>
       <c r="AD11" s="19" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="AE11" s="19" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="AG11" s="19" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="AH11" s="19" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="AJ11" s="19" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="AL11" s="19" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="AQ11" s="19" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="AR11" s="19" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="AS11" s="19"/>
       <c r="AT11" s="19"/>
       <c r="AU11" s="19"/>
       <c r="AV11" s="19"/>
       <c r="AW11" s="19" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="AX11" s="19"/>
       <c r="AY11" s="19" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="BE11" s="19" t="s">
-        <v>439</v>
+        <v>469</v>
+      </c>
+      <c r="BI11" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="BK11" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="BL11" s="19" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
-      <c r="B12" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>441</v>
+      <c r="B12" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>474</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="O12" s="30"/>
-      <c r="U12" s="21" t="s">
-        <v>443</v>
+        <v>475</v>
+      </c>
+      <c r="O12" s="28"/>
+      <c r="U12" s="19" t="s">
+        <v>476</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="AB12" s="19"/>
       <c r="AC12" s="19" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="AH12" s="19" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="AJ12" s="19" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="AK12" s="19" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="AQ12" s="19" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="AR12" s="19" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="AS12" s="19"/>
       <c r="AT12" s="19"/>
       <c r="AU12" s="19"/>
       <c r="AV12" s="19"/>
       <c r="AW12" s="19" t="s">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="AX12" s="19"/>
       <c r="BE12" s="19" t="s">
-        <v>454</v>
+        <v>487</v>
+      </c>
+      <c r="BI12" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="BK12" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="BL12" s="34" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
-      <c r="B13" s="25" t="s">
-        <v>455</v>
+      <c r="B13" s="24" t="s">
+        <v>490</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="O13" s="30"/>
-      <c r="U13" s="21" t="s">
-        <v>457</v>
+        <v>491</v>
+      </c>
+      <c r="O13" s="28"/>
+      <c r="U13" s="19" t="s">
+        <v>492</v>
       </c>
       <c r="V13" s="19" t="s">
-        <v>458</v>
+        <v>493</v>
       </c>
       <c r="AB13" s="19"/>
       <c r="AC13" s="19" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19" t="s">
-        <v>459</v>
+        <v>494</v>
       </c>
       <c r="AG13" s="19" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="AH13" s="19" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="AJ13" s="19" t="s">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="AK13" s="19" t="s">
-        <v>464</v>
+        <v>499</v>
       </c>
       <c r="AQ13" s="19"/>
       <c r="AR13" s="19"/>
@@ -32297,50 +32599,59 @@
       <c r="AU13" s="19"/>
       <c r="AV13" s="19"/>
       <c r="AW13" s="19" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="AX13" s="19"/>
       <c r="BE13" s="19" t="s">
-        <v>466</v>
+        <v>501</v>
+      </c>
+      <c r="BI13" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="BK13" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="BL13" s="34" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
-      <c r="B14" s="25" t="s">
-        <v>467</v>
+      <c r="B14" s="24" t="s">
+        <v>504</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="O14" s="30"/>
-      <c r="U14" s="21" t="s">
-        <v>469</v>
+        <v>505</v>
+      </c>
+      <c r="O14" s="28"/>
+      <c r="U14" s="19" t="s">
+        <v>506</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="AB14" s="19"/>
-      <c r="AC14" s="19" t="s">
-        <v>471</v>
+      <c r="AC14" s="35" t="s">
+        <v>508</v>
       </c>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="AG14" s="19" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="AH14" s="19" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="AJ14" s="19" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="AK14" s="19" t="s">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="AQ14" s="19"/>
       <c r="AR14" s="19"/>
@@ -32349,50 +32660,56 @@
       <c r="AU14" s="19"/>
       <c r="AV14" s="19"/>
       <c r="AW14" s="19" t="s">
-        <v>478</v>
+        <v>515</v>
       </c>
       <c r="AX14" s="19"/>
       <c r="BE14" s="19" t="s">
-        <v>479</v>
+        <v>516</v>
+      </c>
+      <c r="BI14" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="BK14" s="19" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
-      <c r="B15" s="25" t="s">
-        <v>480</v>
+      <c r="B15" s="24" t="s">
+        <v>518</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="O15" s="30"/>
-      <c r="U15" s="21" t="s">
-        <v>482</v>
+        <v>519</v>
+      </c>
+      <c r="O15" s="28"/>
+      <c r="U15" s="19" t="s">
+        <v>520</v>
       </c>
       <c r="V15" s="19" t="s">
-        <v>483</v>
+        <v>521</v>
       </c>
       <c r="AB15" s="19"/>
       <c r="AC15" s="19" t="s">
-        <v>484</v>
+        <v>522</v>
       </c>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19" t="s">
-        <v>485</v>
+        <v>523</v>
       </c>
       <c r="AG15" s="19" t="s">
-        <v>486</v>
+        <v>524</v>
       </c>
       <c r="AH15" s="19" t="s">
-        <v>487</v>
+        <v>525</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>488</v>
+        <v>526</v>
       </c>
       <c r="AJ15" s="19" t="s">
-        <v>489</v>
+        <v>527</v>
       </c>
       <c r="AK15" s="19" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
       <c r="AQ15" s="19"/>
       <c r="AR15" s="19"/>
@@ -32401,50 +32718,53 @@
       <c r="AU15" s="19"/>
       <c r="AV15" s="19"/>
       <c r="AW15" s="19" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="AX15" s="19"/>
       <c r="BE15" s="19" t="s">
-        <v>492</v>
+        <v>530</v>
+      </c>
+      <c r="BI15" s="19" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
-      <c r="B16" s="25" t="s">
-        <v>493</v>
+      <c r="B16" s="24" t="s">
+        <v>532</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="O16" s="30"/>
-      <c r="U16" s="21" t="s">
-        <v>495</v>
+        <v>533</v>
+      </c>
+      <c r="O16" s="28"/>
+      <c r="U16" s="19" t="s">
+        <v>534</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="19" t="s">
-        <v>497</v>
+      <c r="AC16" s="31" t="s">
+        <v>536</v>
       </c>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="AG16" s="19" t="s">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="AH16" s="19" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="AI16" s="19" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="AJ16" s="19" t="s">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
       <c r="AQ16" s="19"/>
       <c r="AR16" s="19"/>
@@ -32453,50 +32773,53 @@
       <c r="AU16" s="19"/>
       <c r="AV16" s="19"/>
       <c r="AW16" s="19" t="s">
-        <v>504</v>
+        <v>543</v>
       </c>
       <c r="AX16" s="19"/>
       <c r="BE16" s="19" t="s">
-        <v>505</v>
+        <v>544</v>
+      </c>
+      <c r="BI16" s="19" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
-      <c r="B17" s="25" t="s">
-        <v>506</v>
+      <c r="B17" s="24" t="s">
+        <v>546</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>507</v>
-      </c>
-      <c r="O17" s="30"/>
-      <c r="U17" s="21" t="s">
-        <v>508</v>
+        <v>547</v>
+      </c>
+      <c r="O17" s="28"/>
+      <c r="U17" s="19" t="s">
+        <v>548</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>509</v>
+        <v>549</v>
       </c>
       <c r="AB17" s="19"/>
-      <c r="AC17" s="19" t="s">
-        <v>510</v>
+      <c r="AC17" s="31" t="s">
+        <v>550</v>
       </c>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19" t="s">
-        <v>511</v>
+        <v>551</v>
       </c>
       <c r="AG17" s="19" t="s">
-        <v>512</v>
+        <v>552</v>
       </c>
       <c r="AH17" s="19" t="s">
-        <v>513</v>
+        <v>553</v>
       </c>
       <c r="AI17" s="19" t="s">
-        <v>514</v>
+        <v>554</v>
       </c>
       <c r="AJ17" s="19" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
       <c r="AK17" s="19" t="s">
-        <v>516</v>
+        <v>556</v>
       </c>
       <c r="AQ17" s="19"/>
       <c r="AR17" s="19"/>
@@ -32507,46 +32830,49 @@
       <c r="AW17" s="19"/>
       <c r="AX17" s="19"/>
       <c r="BE17" s="19" t="s">
-        <v>517</v>
+        <v>557</v>
+      </c>
+      <c r="BI17" s="19" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
-      <c r="B18" s="25" t="s">
-        <v>518</v>
+      <c r="B18" s="24" t="s">
+        <v>559</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="O18" s="30"/>
-      <c r="U18" s="21" t="s">
-        <v>520</v>
+        <v>560</v>
+      </c>
+      <c r="O18" s="28"/>
+      <c r="U18" s="19" t="s">
+        <v>561</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="AB18" s="19"/>
       <c r="AC18" s="19" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
       <c r="AG18" s="19" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="AH18" s="19" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="AI18" s="19" t="s">
-        <v>526</v>
+        <v>567</v>
       </c>
       <c r="AJ18" s="19" t="s">
-        <v>527</v>
+        <v>568</v>
       </c>
       <c r="AK18" s="19" t="s">
-        <v>528</v>
+        <v>569</v>
       </c>
       <c r="AQ18" s="19"/>
       <c r="AR18" s="19"/>
@@ -32557,46 +32883,49 @@
       <c r="AW18" s="19"/>
       <c r="AX18" s="19"/>
       <c r="BE18" s="19" t="s">
-        <v>529</v>
+        <v>570</v>
+      </c>
+      <c r="BI18" s="19" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
-      <c r="B19" s="25" t="s">
-        <v>530</v>
+      <c r="B19" s="24" t="s">
+        <v>572</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>531</v>
-      </c>
-      <c r="O19" s="30"/>
-      <c r="U19" s="31" t="s">
-        <v>127</v>
+        <v>573</v>
+      </c>
+      <c r="O19" s="28"/>
+      <c r="U19" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>532</v>
+        <v>574</v>
       </c>
       <c r="AB19" s="19"/>
       <c r="AC19" s="19" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19" t="s">
-        <v>534</v>
+        <v>576</v>
       </c>
       <c r="AG19" s="19" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
       <c r="AH19" s="19" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="AI19" s="19" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="AJ19" s="19" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
       <c r="AK19" s="19" t="s">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="AQ19" s="19"/>
       <c r="AR19" s="19"/>
@@ -32607,46 +32936,49 @@
       <c r="AW19" s="19"/>
       <c r="AX19" s="19"/>
       <c r="BE19" s="19" t="s">
-        <v>540</v>
+        <v>582</v>
+      </c>
+      <c r="BI19" s="19" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
-      <c r="B20" s="25" t="s">
-        <v>541</v>
+      <c r="B20" s="24" t="s">
+        <v>583</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="O20" s="30"/>
-      <c r="U20" s="21" t="s">
-        <v>543</v>
+        <v>584</v>
+      </c>
+      <c r="O20" s="28"/>
+      <c r="U20" s="19" t="s">
+        <v>585</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>544</v>
+        <v>586</v>
       </c>
       <c r="AB20" s="19"/>
       <c r="AC20" s="19" t="s">
-        <v>545</v>
+        <v>587</v>
       </c>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="AG20" s="19" t="s">
-        <v>546</v>
+        <v>588</v>
       </c>
       <c r="AH20" s="19" t="s">
-        <v>547</v>
+        <v>589</v>
       </c>
       <c r="AI20" s="19" t="s">
-        <v>548</v>
+        <v>590</v>
       </c>
       <c r="AJ20" s="19" t="s">
-        <v>549</v>
+        <v>591</v>
       </c>
       <c r="AK20" s="19" t="s">
-        <v>550</v>
+        <v>592</v>
       </c>
       <c r="AQ20" s="19"/>
       <c r="AR20" s="19"/>
@@ -32657,40 +32989,43 @@
       <c r="AW20" s="19"/>
       <c r="AX20" s="19"/>
       <c r="BE20" s="19" t="s">
-        <v>551</v>
+        <v>593</v>
+      </c>
+      <c r="BI20" s="19" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0"/>
-      <c r="B21" s="25" t="s">
-        <v>552</v>
-      </c>
-      <c r="O21" s="30"/>
-      <c r="U21" s="21" t="s">
-        <v>136</v>
+      <c r="B21" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="O21" s="28"/>
+      <c r="U21" s="29" t="s">
+        <v>142</v>
       </c>
       <c r="V21" s="19" t="s">
-        <v>553</v>
+        <v>596</v>
       </c>
       <c r="AB21" s="19"/>
-      <c r="AC21" s="19" t="s">
-        <v>554</v>
+      <c r="AC21" s="31" t="s">
+        <v>597</v>
       </c>
       <c r="AD21" s="19"/>
       <c r="AG21" s="19" t="s">
-        <v>555</v>
+        <v>598</v>
       </c>
       <c r="AH21" s="19" t="s">
-        <v>556</v>
+        <v>599</v>
       </c>
       <c r="AI21" s="19" t="s">
-        <v>557</v>
+        <v>600</v>
       </c>
       <c r="AJ21" s="19" t="s">
-        <v>558</v>
+        <v>601</v>
       </c>
       <c r="AK21" s="19" t="s">
-        <v>559</v>
+        <v>602</v>
       </c>
       <c r="AQ21" s="19"/>
       <c r="AR21" s="19"/>
@@ -32701,40 +33036,40 @@
       <c r="AW21" s="19"/>
       <c r="AX21" s="19"/>
       <c r="BE21" s="19" t="s">
-        <v>560</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
-      <c r="B22" s="25" t="s">
-        <v>561</v>
-      </c>
-      <c r="O22" s="30"/>
-      <c r="U22" s="21" t="s">
-        <v>562</v>
+      <c r="B22" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="O22" s="28"/>
+      <c r="U22" s="19" t="s">
+        <v>605</v>
       </c>
       <c r="V22" s="19" t="s">
-        <v>563</v>
+        <v>606</v>
       </c>
       <c r="AB22" s="19"/>
       <c r="AC22" s="19" t="s">
-        <v>564</v>
+        <v>607</v>
       </c>
       <c r="AD22" s="19"/>
       <c r="AG22" s="19" t="s">
-        <v>565</v>
+        <v>608</v>
       </c>
       <c r="AH22" s="19" t="s">
-        <v>566</v>
+        <v>609</v>
       </c>
       <c r="AI22" s="19" t="s">
-        <v>567</v>
+        <v>610</v>
       </c>
       <c r="AJ22" s="19" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="AK22" s="19" t="s">
-        <v>568</v>
+        <v>611</v>
       </c>
       <c r="AQ22" s="19"/>
       <c r="AR22" s="19"/>
@@ -32745,37 +33080,37 @@
       <c r="AW22" s="19"/>
       <c r="AX22" s="19"/>
       <c r="BE22" s="19" t="s">
-        <v>569</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0"/>
-      <c r="O23" s="30"/>
-      <c r="U23" s="31" t="s">
-        <v>185</v>
+      <c r="O23" s="28"/>
+      <c r="U23" s="29" t="s">
+        <v>194</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="AB23" s="19"/>
       <c r="AC23" s="19" t="s">
-        <v>571</v>
+        <v>614</v>
       </c>
       <c r="AD23" s="19"/>
       <c r="AG23" s="19" t="s">
-        <v>572</v>
+        <v>615</v>
       </c>
       <c r="AH23" s="19" t="s">
-        <v>573</v>
+        <v>616</v>
       </c>
       <c r="AI23" s="19" t="s">
-        <v>574</v>
+        <v>617</v>
       </c>
       <c r="AJ23" s="19" t="s">
-        <v>575</v>
+        <v>618</v>
       </c>
       <c r="AK23" s="19" t="s">
-        <v>576</v>
+        <v>619</v>
       </c>
       <c r="AQ23" s="19"/>
       <c r="AR23" s="19"/>
@@ -32786,37 +33121,37 @@
       <c r="AW23" s="19"/>
       <c r="AX23" s="19"/>
       <c r="BE23" s="19" t="s">
-        <v>577</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0"/>
-      <c r="O24" s="30"/>
-      <c r="U24" s="21" t="s">
-        <v>578</v>
+      <c r="O24" s="28"/>
+      <c r="U24" s="19" t="s">
+        <v>621</v>
       </c>
       <c r="V24" s="19" t="s">
-        <v>579</v>
+        <v>622</v>
       </c>
       <c r="AB24" s="19"/>
       <c r="AC24" s="19" t="s">
-        <v>580</v>
+        <v>623</v>
       </c>
       <c r="AD24" s="19"/>
       <c r="AG24" s="19" t="s">
-        <v>581</v>
+        <v>624</v>
       </c>
       <c r="AH24" s="19" t="s">
-        <v>582</v>
+        <v>625</v>
       </c>
       <c r="AI24" s="19" t="s">
-        <v>583</v>
+        <v>626</v>
       </c>
       <c r="AJ24" s="19" t="s">
-        <v>584</v>
+        <v>627</v>
       </c>
       <c r="AK24" s="19" t="s">
-        <v>585</v>
+        <v>628</v>
       </c>
       <c r="AQ24" s="19"/>
       <c r="AR24" s="19"/>
@@ -32827,37 +33162,37 @@
       <c r="AW24" s="19"/>
       <c r="AX24" s="19"/>
       <c r="BE24" s="19" t="s">
-        <v>586</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
-      <c r="O25" s="30"/>
-      <c r="U25" s="21" t="s">
-        <v>587</v>
+      <c r="O25" s="28"/>
+      <c r="U25" s="19" t="s">
+        <v>630</v>
       </c>
       <c r="V25" s="19" t="s">
-        <v>588</v>
+        <v>631</v>
       </c>
       <c r="AB25" s="19"/>
-      <c r="AC25" s="19" t="s">
-        <v>589</v>
+      <c r="AC25" s="31" t="s">
+        <v>632</v>
       </c>
       <c r="AD25" s="19"/>
       <c r="AG25" s="19" t="s">
-        <v>590</v>
+        <v>633</v>
       </c>
       <c r="AH25" s="19" t="s">
-        <v>591</v>
+        <v>634</v>
       </c>
       <c r="AI25" s="19" t="s">
-        <v>592</v>
+        <v>635</v>
       </c>
       <c r="AJ25" s="19" t="s">
-        <v>593</v>
+        <v>636</v>
       </c>
       <c r="AK25" s="19" t="s">
-        <v>594</v>
+        <v>637</v>
       </c>
       <c r="AQ25" s="19"/>
       <c r="AR25" s="19"/>
@@ -32868,34 +33203,34 @@
       <c r="AW25" s="19"/>
       <c r="AX25" s="19"/>
       <c r="BE25" s="19" t="s">
-        <v>595</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
-      <c r="O26" s="30"/>
-      <c r="U26" s="21" t="s">
-        <v>596</v>
+      <c r="O26" s="28"/>
+      <c r="U26" s="19" t="s">
+        <v>639</v>
       </c>
       <c r="V26" s="19" t="s">
-        <v>597</v>
+        <v>640</v>
       </c>
       <c r="AB26" s="19"/>
       <c r="AC26" s="19" t="s">
-        <v>598</v>
+        <v>641</v>
       </c>
       <c r="AD26" s="19"/>
       <c r="AG26" s="19" t="s">
-        <v>599</v>
+        <v>642</v>
       </c>
       <c r="AH26" s="19" t="s">
-        <v>600</v>
+        <v>643</v>
       </c>
       <c r="AI26" s="19" t="s">
-        <v>601</v>
+        <v>644</v>
       </c>
       <c r="AK26" s="19" t="s">
-        <v>602</v>
+        <v>645</v>
       </c>
       <c r="AQ26" s="19"/>
       <c r="AR26" s="19"/>
@@ -32906,34 +33241,34 @@
       <c r="AW26" s="19"/>
       <c r="AX26" s="19"/>
       <c r="BE26" s="19" t="s">
-        <v>603</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0"/>
-      <c r="O27" s="30"/>
-      <c r="U27" s="21" t="s">
-        <v>604</v>
+      <c r="O27" s="28"/>
+      <c r="U27" s="19" t="s">
+        <v>647</v>
       </c>
       <c r="V27" s="19" t="s">
-        <v>605</v>
+        <v>648</v>
       </c>
       <c r="AB27" s="19"/>
       <c r="AC27" s="19" t="s">
-        <v>606</v>
+        <v>649</v>
       </c>
       <c r="AD27" s="19"/>
       <c r="AG27" s="19" t="s">
-        <v>607</v>
+        <v>650</v>
       </c>
       <c r="AH27" s="19" t="s">
-        <v>608</v>
+        <v>651</v>
       </c>
       <c r="AI27" s="19" t="s">
-        <v>609</v>
+        <v>652</v>
       </c>
       <c r="AK27" s="19" t="s">
-        <v>610</v>
+        <v>653</v>
       </c>
       <c r="AQ27" s="19"/>
       <c r="AR27" s="19"/>
@@ -32944,31 +33279,31 @@
       <c r="AW27" s="19"/>
       <c r="AX27" s="19"/>
       <c r="BE27" s="19" t="s">
-        <v>611</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0"/>
-      <c r="O28" s="30"/>
-      <c r="U28" s="31" t="s">
-        <v>220</v>
+      <c r="O28" s="28"/>
+      <c r="U28" s="29" t="s">
+        <v>232</v>
       </c>
       <c r="V28" s="19" t="s">
-        <v>612</v>
+        <v>655</v>
       </c>
       <c r="AB28" s="19"/>
       <c r="AC28" s="19" t="s">
-        <v>613</v>
+        <v>656</v>
       </c>
       <c r="AD28" s="19"/>
       <c r="AG28" s="19" t="s">
-        <v>614</v>
+        <v>657</v>
       </c>
       <c r="AH28" s="19" t="s">
-        <v>615</v>
+        <v>658</v>
       </c>
       <c r="AI28" s="19" t="s">
-        <v>616</v>
+        <v>659</v>
       </c>
       <c r="AQ28" s="19"/>
       <c r="AR28" s="19"/>
@@ -32979,31 +33314,31 @@
       <c r="AW28" s="19"/>
       <c r="AX28" s="19"/>
       <c r="BE28" s="19" t="s">
-        <v>617</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
-      <c r="O29" s="30"/>
-      <c r="U29" s="31" t="s">
-        <v>294</v>
+      <c r="O29" s="28"/>
+      <c r="U29" s="29" t="s">
+        <v>312</v>
       </c>
       <c r="V29" s="19" t="s">
-        <v>618</v>
+        <v>661</v>
       </c>
       <c r="AB29" s="19"/>
       <c r="AC29" s="19" t="s">
-        <v>619</v>
+        <v>662</v>
       </c>
       <c r="AD29" s="19"/>
       <c r="AG29" s="19" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="AH29" s="19" t="s">
-        <v>621</v>
+        <v>664</v>
       </c>
       <c r="AI29" s="19" t="s">
-        <v>622</v>
+        <v>665</v>
       </c>
       <c r="AQ29" s="19"/>
       <c r="AR29" s="19"/>
@@ -33016,26 +33351,26 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
-      <c r="O30" s="30"/>
-      <c r="U30" s="21" t="s">
-        <v>623</v>
+      <c r="O30" s="28"/>
+      <c r="U30" s="19" t="s">
+        <v>666</v>
       </c>
       <c r="V30" s="19" t="s">
-        <v>624</v>
+        <v>667</v>
       </c>
       <c r="AB30" s="19"/>
       <c r="AC30" s="19" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="AD30" s="19"/>
       <c r="AG30" s="19" t="s">
-        <v>626</v>
+        <v>669</v>
       </c>
       <c r="AH30" s="19" t="s">
-        <v>627</v>
+        <v>670</v>
       </c>
       <c r="AI30" s="19" t="s">
-        <v>628</v>
+        <v>671</v>
       </c>
       <c r="AQ30" s="19"/>
       <c r="AR30" s="19"/>
@@ -33048,26 +33383,26 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
-      <c r="O31" s="30"/>
-      <c r="U31" s="21" t="s">
-        <v>629</v>
+      <c r="O31" s="28"/>
+      <c r="U31" s="19" t="s">
+        <v>672</v>
       </c>
       <c r="V31" s="19" t="s">
-        <v>630</v>
+        <v>673</v>
       </c>
       <c r="AB31" s="19"/>
-      <c r="AC31" s="19" t="s">
-        <v>631</v>
+      <c r="AC31" s="31" t="s">
+        <v>674</v>
       </c>
       <c r="AD31" s="19"/>
       <c r="AG31" s="19" t="s">
-        <v>632</v>
+        <v>675</v>
       </c>
       <c r="AH31" s="19" t="s">
-        <v>633</v>
+        <v>676</v>
       </c>
       <c r="AI31" s="19" t="s">
-        <v>634</v>
+        <v>677</v>
       </c>
       <c r="AQ31" s="19"/>
       <c r="AR31" s="19"/>
@@ -33080,26 +33415,26 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0"/>
-      <c r="O32" s="30"/>
-      <c r="U32" s="21" t="s">
-        <v>635</v>
+      <c r="O32" s="28"/>
+      <c r="U32" s="19" t="s">
+        <v>678</v>
       </c>
       <c r="V32" s="19" t="s">
-        <v>636</v>
+        <v>679</v>
       </c>
       <c r="AB32" s="19"/>
-      <c r="AC32" s="19" t="s">
-        <v>637</v>
+      <c r="AC32" s="31" t="s">
+        <v>680</v>
       </c>
       <c r="AD32" s="19"/>
       <c r="AG32" s="19" t="s">
-        <v>638</v>
+        <v>681</v>
       </c>
       <c r="AH32" s="19" t="s">
-        <v>639</v>
+        <v>682</v>
       </c>
       <c r="AI32" s="19" t="s">
-        <v>640</v>
+        <v>683</v>
       </c>
       <c r="AQ32" s="19"/>
       <c r="AR32" s="19"/>
@@ -33112,26 +33447,26 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="O33" s="30"/>
-      <c r="U33" s="21" t="s">
-        <v>275</v>
+      <c r="O33" s="28"/>
+      <c r="U33" s="29" t="s">
+        <v>290</v>
       </c>
       <c r="V33" s="19" t="s">
-        <v>641</v>
+        <v>684</v>
       </c>
       <c r="AB33" s="19"/>
-      <c r="AC33" s="19" t="s">
-        <v>642</v>
+      <c r="AC33" s="31" t="s">
+        <v>685</v>
       </c>
       <c r="AD33" s="19"/>
       <c r="AG33" s="19" t="s">
-        <v>643</v>
+        <v>686</v>
       </c>
       <c r="AH33" s="19" t="s">
-        <v>644</v>
+        <v>687</v>
       </c>
       <c r="AI33" s="19" t="s">
-        <v>645</v>
+        <v>688</v>
       </c>
       <c r="AQ33" s="19"/>
       <c r="AR33" s="19"/>
@@ -33144,21 +33479,21 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
-      <c r="O34" s="30"/>
-      <c r="U34" s="31" t="s">
-        <v>183</v>
+      <c r="O34" s="28"/>
+      <c r="U34" s="29" t="s">
+        <v>192</v>
       </c>
       <c r="V34" s="19" t="s">
-        <v>646</v>
+        <v>689</v>
       </c>
       <c r="AB34" s="19"/>
       <c r="AC34" s="19"/>
       <c r="AD34" s="19"/>
       <c r="AG34" s="19" t="s">
-        <v>647</v>
+        <v>690</v>
       </c>
       <c r="AI34" s="19" t="s">
-        <v>648</v>
+        <v>691</v>
       </c>
       <c r="AQ34" s="19"/>
       <c r="AR34" s="19"/>
@@ -33171,21 +33506,21 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
-      <c r="O35" s="30"/>
-      <c r="U35" s="31" t="s">
-        <v>133</v>
+      <c r="O35" s="28"/>
+      <c r="U35" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="V35" s="19" t="s">
-        <v>649</v>
+        <v>692</v>
       </c>
       <c r="AB35" s="19"/>
       <c r="AC35" s="19"/>
       <c r="AD35" s="19"/>
       <c r="AG35" s="19" t="s">
-        <v>650</v>
+        <v>693</v>
       </c>
       <c r="AI35" s="19" t="s">
-        <v>651</v>
+        <v>694</v>
       </c>
       <c r="AQ35" s="19"/>
       <c r="AR35" s="19"/>
@@ -33198,21 +33533,21 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
-      <c r="O36" s="30"/>
-      <c r="U36" s="21" t="s">
-        <v>652</v>
+      <c r="O36" s="28"/>
+      <c r="U36" s="19" t="s">
+        <v>695</v>
       </c>
       <c r="V36" s="19" t="s">
-        <v>653</v>
+        <v>696</v>
       </c>
       <c r="AB36" s="19"/>
       <c r="AC36" s="19"/>
       <c r="AD36" s="19"/>
       <c r="AG36" s="19" t="s">
-        <v>654</v>
+        <v>697</v>
       </c>
       <c r="AI36" s="19" t="s">
-        <v>655</v>
+        <v>698</v>
       </c>
       <c r="AQ36" s="19"/>
       <c r="AR36" s="19"/>
@@ -33225,21 +33560,21 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
-      <c r="O37" s="30"/>
-      <c r="U37" s="21" t="s">
-        <v>656</v>
+      <c r="O37" s="28"/>
+      <c r="U37" s="19" t="s">
+        <v>699</v>
       </c>
       <c r="V37" s="19" t="s">
-        <v>657</v>
+        <v>700</v>
       </c>
       <c r="AB37" s="19"/>
       <c r="AC37" s="19"/>
       <c r="AD37" s="19"/>
       <c r="AG37" s="19" t="s">
-        <v>658</v>
+        <v>701</v>
       </c>
       <c r="AI37" s="19" t="s">
-        <v>659</v>
+        <v>702</v>
       </c>
       <c r="AQ37" s="19"/>
       <c r="AR37" s="19"/>
@@ -33252,21 +33587,21 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0"/>
-      <c r="O38" s="30"/>
-      <c r="U38" s="21" t="s">
-        <v>660</v>
+      <c r="O38" s="28"/>
+      <c r="U38" s="19" t="s">
+        <v>703</v>
       </c>
       <c r="V38" s="19" t="s">
-        <v>661</v>
+        <v>704</v>
       </c>
       <c r="AB38" s="19"/>
       <c r="AC38" s="19"/>
       <c r="AD38" s="19"/>
       <c r="AG38" s="19" t="s">
-        <v>662</v>
+        <v>705</v>
       </c>
       <c r="AI38" s="19" t="s">
-        <v>663</v>
+        <v>706</v>
       </c>
       <c r="AQ38" s="19"/>
       <c r="AR38" s="19"/>
@@ -33279,21 +33614,21 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
-      <c r="O39" s="30"/>
-      <c r="U39" s="21" t="s">
-        <v>664</v>
+      <c r="O39" s="28"/>
+      <c r="U39" s="19" t="s">
+        <v>707</v>
       </c>
       <c r="V39" s="19" t="s">
-        <v>665</v>
+        <v>708</v>
       </c>
       <c r="AB39" s="19"/>
       <c r="AC39" s="19"/>
       <c r="AD39" s="19"/>
       <c r="AG39" s="19" t="s">
-        <v>666</v>
+        <v>709</v>
       </c>
       <c r="AI39" s="19" t="s">
-        <v>667</v>
+        <v>710</v>
       </c>
       <c r="AQ39" s="19"/>
       <c r="AR39" s="19"/>
@@ -33306,18 +33641,18 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0"/>
-      <c r="O40" s="30"/>
-      <c r="U40" s="21" t="s">
-        <v>166</v>
+      <c r="O40" s="28"/>
+      <c r="U40" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="V40" s="19" t="s">
-        <v>668</v>
+        <v>711</v>
       </c>
       <c r="AB40" s="19"/>
       <c r="AC40" s="19"/>
       <c r="AD40" s="19"/>
       <c r="AG40" s="19" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="AQ40" s="19"/>
       <c r="AR40" s="19"/>
@@ -33330,18 +33665,18 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0"/>
-      <c r="O41" s="30"/>
-      <c r="U41" s="31" t="s">
-        <v>440</v>
+      <c r="O41" s="28"/>
+      <c r="U41" s="29" t="s">
+        <v>473</v>
       </c>
       <c r="V41" s="19" t="s">
-        <v>670</v>
+        <v>713</v>
       </c>
       <c r="AB41" s="19"/>
       <c r="AC41" s="19"/>
       <c r="AD41" s="19"/>
       <c r="AG41" s="19" t="s">
-        <v>671</v>
+        <v>714</v>
       </c>
       <c r="AQ41" s="19"/>
       <c r="AR41" s="19"/>
@@ -33354,18 +33689,18 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0"/>
-      <c r="O42" s="30"/>
-      <c r="U42" s="31" t="s">
-        <v>190</v>
+      <c r="O42" s="28"/>
+      <c r="U42" s="29" t="s">
+        <v>199</v>
       </c>
       <c r="V42" s="19" t="s">
-        <v>672</v>
+        <v>715</v>
       </c>
       <c r="AB42" s="19"/>
       <c r="AC42" s="19"/>
       <c r="AD42" s="19"/>
       <c r="AG42" s="19" t="s">
-        <v>673</v>
+        <v>716</v>
       </c>
       <c r="AQ42" s="19"/>
       <c r="AR42" s="19"/>
@@ -33378,18 +33713,18 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0"/>
-      <c r="O43" s="30"/>
-      <c r="U43" s="21" t="s">
-        <v>139</v>
+      <c r="O43" s="28"/>
+      <c r="U43" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="V43" s="19" t="s">
-        <v>674</v>
+        <v>717</v>
       </c>
       <c r="AB43" s="19"/>
       <c r="AC43" s="19"/>
       <c r="AD43" s="19"/>
       <c r="AG43" s="19" t="s">
-        <v>675</v>
+        <v>718</v>
       </c>
       <c r="AQ43" s="19"/>
       <c r="AR43" s="19"/>
@@ -33402,18 +33737,18 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0"/>
-      <c r="O44" s="30"/>
-      <c r="U44" s="21" t="s">
-        <v>676</v>
+      <c r="O44" s="28"/>
+      <c r="U44" s="19" t="s">
+        <v>719</v>
       </c>
       <c r="V44" s="19" t="s">
-        <v>677</v>
+        <v>720</v>
       </c>
       <c r="AB44" s="19"/>
       <c r="AC44" s="19"/>
       <c r="AD44" s="19"/>
       <c r="AG44" s="19" t="s">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="AQ44" s="19"/>
       <c r="AR44" s="19"/>
@@ -33426,15 +33761,15 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0"/>
-      <c r="O45" s="30"/>
-      <c r="U45" s="31" t="s">
-        <v>117</v>
+      <c r="O45" s="28"/>
+      <c r="U45" s="29" t="s">
+        <v>123</v>
       </c>
       <c r="AB45" s="19"/>
       <c r="AC45" s="19"/>
       <c r="AD45" s="19"/>
       <c r="AG45" s="19" t="s">
-        <v>679</v>
+        <v>722</v>
       </c>
       <c r="AQ45" s="19"/>
       <c r="AR45" s="19"/>
@@ -33447,15 +33782,15 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0"/>
-      <c r="O46" s="30"/>
-      <c r="U46" s="31" t="s">
-        <v>257</v>
+      <c r="O46" s="28"/>
+      <c r="U46" s="29" t="s">
+        <v>272</v>
       </c>
       <c r="AB46" s="19"/>
       <c r="AC46" s="19"/>
       <c r="AD46" s="19"/>
       <c r="AG46" s="19" t="s">
-        <v>680</v>
+        <v>723</v>
       </c>
       <c r="AQ46" s="19"/>
       <c r="AR46" s="19"/>
@@ -33468,15 +33803,15 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0"/>
-      <c r="O47" s="30"/>
-      <c r="U47" s="31" t="s">
-        <v>336</v>
+      <c r="O47" s="28"/>
+      <c r="U47" s="29" t="s">
+        <v>357</v>
       </c>
       <c r="AB47" s="19"/>
       <c r="AC47" s="19"/>
       <c r="AD47" s="19"/>
       <c r="AG47" s="19" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="AQ47" s="19"/>
       <c r="AR47" s="19"/>
@@ -33489,15 +33824,15 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0"/>
-      <c r="O48" s="30"/>
-      <c r="U48" s="21" t="s">
-        <v>681</v>
+      <c r="O48" s="28"/>
+      <c r="U48" s="19" t="s">
+        <v>724</v>
       </c>
       <c r="AB48" s="19"/>
       <c r="AC48" s="19"/>
       <c r="AD48" s="19"/>
       <c r="AG48" s="19" t="s">
-        <v>682</v>
+        <v>725</v>
       </c>
       <c r="AQ48" s="19"/>
       <c r="AR48" s="19"/>
@@ -33510,15 +33845,15 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0"/>
-      <c r="O49" s="30"/>
-      <c r="U49" s="31" t="s">
-        <v>260</v>
+      <c r="O49" s="28"/>
+      <c r="U49" s="29" t="s">
+        <v>275</v>
       </c>
       <c r="AB49" s="19"/>
       <c r="AC49" s="19"/>
       <c r="AD49" s="19"/>
       <c r="AG49" s="19" t="s">
-        <v>683</v>
+        <v>726</v>
       </c>
       <c r="AQ49" s="19"/>
       <c r="AR49" s="19"/>
@@ -33531,15 +33866,15 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0"/>
-      <c r="O50" s="30"/>
-      <c r="U50" s="31" t="s">
-        <v>171</v>
+      <c r="O50" s="28"/>
+      <c r="U50" s="29" t="s">
+        <v>180</v>
       </c>
       <c r="AB50" s="19"/>
       <c r="AC50" s="19"/>
       <c r="AD50" s="19"/>
       <c r="AG50" s="19" t="s">
-        <v>684</v>
+        <v>727</v>
       </c>
       <c r="AQ50" s="19"/>
       <c r="AR50" s="19"/>
@@ -33552,15 +33887,15 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0"/>
-      <c r="O51" s="30"/>
-      <c r="U51" s="21" t="s">
-        <v>685</v>
+      <c r="O51" s="28"/>
+      <c r="U51" s="19" t="s">
+        <v>728</v>
       </c>
       <c r="AB51" s="19"/>
       <c r="AC51" s="19"/>
       <c r="AD51" s="19"/>
       <c r="AG51" s="19" t="s">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="AQ51" s="19"/>
       <c r="AR51" s="19"/>
@@ -33573,15 +33908,15 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0"/>
-      <c r="O52" s="30"/>
-      <c r="U52" s="21" t="s">
-        <v>687</v>
+      <c r="O52" s="28"/>
+      <c r="U52" s="19" t="s">
+        <v>730</v>
       </c>
       <c r="AB52" s="19"/>
       <c r="AC52" s="19"/>
       <c r="AD52" s="19"/>
       <c r="AG52" s="19" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
       <c r="AQ52" s="19"/>
       <c r="AR52" s="19"/>
@@ -33594,15 +33929,15 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0"/>
-      <c r="O53" s="30"/>
-      <c r="U53" s="21" t="s">
-        <v>689</v>
+      <c r="O53" s="28"/>
+      <c r="U53" s="19" t="s">
+        <v>732</v>
       </c>
       <c r="AB53" s="19"/>
       <c r="AC53" s="19"/>
       <c r="AD53" s="19"/>
       <c r="AG53" s="19" t="s">
-        <v>690</v>
+        <v>733</v>
       </c>
       <c r="AQ53" s="19"/>
       <c r="AR53" s="19"/>
@@ -33615,15 +33950,15 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0"/>
-      <c r="O54" s="30"/>
-      <c r="U54" s="31" t="s">
-        <v>265</v>
+      <c r="O54" s="28"/>
+      <c r="U54" s="29" t="s">
+        <v>280</v>
       </c>
       <c r="AB54" s="19"/>
       <c r="AC54" s="19"/>
       <c r="AD54" s="19"/>
       <c r="AG54" s="19" t="s">
-        <v>691</v>
+        <v>734</v>
       </c>
       <c r="AQ54" s="19"/>
       <c r="AR54" s="19"/>
@@ -33636,15 +33971,15 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0"/>
-      <c r="O55" s="30"/>
-      <c r="U55" s="21" t="s">
-        <v>692</v>
+      <c r="O55" s="28"/>
+      <c r="U55" s="19" t="s">
+        <v>735</v>
       </c>
       <c r="AB55" s="19"/>
       <c r="AC55" s="19"/>
       <c r="AD55" s="19"/>
       <c r="AG55" s="19" t="s">
-        <v>693</v>
+        <v>736</v>
       </c>
       <c r="AQ55" s="19"/>
       <c r="AR55" s="19"/>
@@ -33657,15 +33992,15 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0"/>
-      <c r="O56" s="30"/>
-      <c r="U56" s="31" t="s">
-        <v>296</v>
+      <c r="O56" s="28"/>
+      <c r="U56" s="29" t="s">
+        <v>314</v>
       </c>
       <c r="AB56" s="19"/>
       <c r="AC56" s="19"/>
       <c r="AD56" s="19"/>
       <c r="AG56" s="19" t="s">
-        <v>694</v>
+        <v>737</v>
       </c>
       <c r="AQ56" s="19"/>
       <c r="AR56" s="19"/>
@@ -33678,15 +34013,15 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0"/>
-      <c r="O57" s="30"/>
-      <c r="U57" s="21" t="s">
-        <v>695</v>
+      <c r="O57" s="28"/>
+      <c r="U57" s="19" t="s">
+        <v>738</v>
       </c>
       <c r="AB57" s="19"/>
       <c r="AC57" s="19"/>
       <c r="AD57" s="19"/>
       <c r="AG57" s="19" t="s">
-        <v>696</v>
+        <v>739</v>
       </c>
       <c r="AQ57" s="19"/>
       <c r="AR57" s="19"/>
@@ -33699,15 +34034,15 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0"/>
-      <c r="O58" s="30"/>
-      <c r="U58" s="31" t="s">
-        <v>306</v>
+      <c r="O58" s="28"/>
+      <c r="U58" s="29" t="s">
+        <v>325</v>
       </c>
       <c r="AB58" s="19"/>
       <c r="AC58" s="19"/>
       <c r="AD58" s="19"/>
       <c r="AG58" s="19" t="s">
-        <v>697</v>
+        <v>740</v>
       </c>
       <c r="AQ58" s="19"/>
       <c r="AR58" s="19"/>
@@ -33720,15 +34055,15 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0"/>
-      <c r="O59" s="30"/>
-      <c r="U59" s="31" t="s">
-        <v>218</v>
+      <c r="O59" s="28"/>
+      <c r="U59" s="29" t="s">
+        <v>230</v>
       </c>
       <c r="AB59" s="19"/>
       <c r="AC59" s="19"/>
       <c r="AD59" s="19"/>
       <c r="AG59" s="19" t="s">
-        <v>698</v>
+        <v>741</v>
       </c>
       <c r="AQ59" s="19"/>
       <c r="AR59" s="19"/>
@@ -33741,15 +34076,15 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0"/>
-      <c r="O60" s="30"/>
-      <c r="U60" s="21" t="s">
-        <v>699</v>
+      <c r="O60" s="28"/>
+      <c r="U60" s="19" t="s">
+        <v>742</v>
       </c>
       <c r="AB60" s="19"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
       <c r="AG60" s="19" t="s">
-        <v>700</v>
+        <v>743</v>
       </c>
       <c r="AQ60" s="19"/>
       <c r="AR60" s="19"/>
@@ -33762,15 +34097,15 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0"/>
-      <c r="O61" s="30"/>
-      <c r="U61" s="21" t="s">
-        <v>701</v>
+      <c r="O61" s="28"/>
+      <c r="U61" s="19" t="s">
+        <v>744</v>
       </c>
       <c r="AB61" s="19"/>
       <c r="AC61" s="19"/>
       <c r="AD61" s="19"/>
       <c r="AG61" s="19" t="s">
-        <v>702</v>
+        <v>745</v>
       </c>
       <c r="AQ61" s="19"/>
       <c r="AR61" s="19"/>
@@ -33783,15 +34118,15 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0"/>
-      <c r="O62" s="30"/>
-      <c r="U62" s="21" t="s">
-        <v>703</v>
+      <c r="O62" s="28"/>
+      <c r="U62" s="19" t="s">
+        <v>746</v>
       </c>
       <c r="AB62" s="19"/>
       <c r="AC62" s="19"/>
       <c r="AD62" s="19"/>
       <c r="AG62" s="19" t="s">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="AQ62" s="19"/>
       <c r="AR62" s="19"/>
@@ -33804,12 +34139,12 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0"/>
-      <c r="O63" s="30"/>
+      <c r="O63" s="28"/>
       <c r="AB63" s="19"/>
       <c r="AC63" s="19"/>
       <c r="AD63" s="19"/>
       <c r="AG63" s="19" t="s">
-        <v>705</v>
+        <v>748</v>
       </c>
       <c r="AQ63" s="19"/>
       <c r="AR63" s="19"/>
@@ -33822,12 +34157,12 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0"/>
-      <c r="O64" s="30"/>
+      <c r="O64" s="28"/>
       <c r="AB64" s="19"/>
       <c r="AC64" s="19"/>
       <c r="AD64" s="19"/>
       <c r="AG64" s="19" t="s">
-        <v>706</v>
+        <v>749</v>
       </c>
       <c r="AQ64" s="19"/>
       <c r="AR64" s="19"/>
@@ -33840,12 +34175,12 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0"/>
-      <c r="O65" s="30"/>
+      <c r="O65" s="28"/>
       <c r="AB65" s="19"/>
       <c r="AC65" s="19"/>
       <c r="AD65" s="19"/>
       <c r="AG65" s="19" t="s">
-        <v>707</v>
+        <v>750</v>
       </c>
       <c r="AQ65" s="19"/>
       <c r="AR65" s="19"/>
@@ -33858,12 +34193,12 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0"/>
-      <c r="O66" s="30"/>
+      <c r="O66" s="28"/>
       <c r="AB66" s="19"/>
       <c r="AC66" s="19"/>
       <c r="AD66" s="19"/>
       <c r="AG66" s="19" t="s">
-        <v>708</v>
+        <v>751</v>
       </c>
       <c r="AQ66" s="19"/>
       <c r="AR66" s="19"/>
@@ -33876,12 +34211,12 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
-      <c r="O67" s="30"/>
+      <c r="O67" s="28"/>
       <c r="AB67" s="19"/>
       <c r="AC67" s="19"/>
       <c r="AD67" s="19"/>
       <c r="AG67" s="19" t="s">
-        <v>709</v>
+        <v>752</v>
       </c>
       <c r="AQ67" s="19"/>
       <c r="AR67" s="19"/>
@@ -33894,12 +34229,12 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0"/>
-      <c r="O68" s="30"/>
+      <c r="O68" s="28"/>
       <c r="AB68" s="19"/>
       <c r="AC68" s="19"/>
       <c r="AD68" s="19"/>
       <c r="AG68" s="19" t="s">
-        <v>710</v>
+        <v>753</v>
       </c>
       <c r="AQ68" s="19"/>
       <c r="AR68" s="19"/>
@@ -33912,12 +34247,12 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0"/>
-      <c r="O69" s="30"/>
+      <c r="O69" s="28"/>
       <c r="AB69" s="19"/>
       <c r="AC69" s="19"/>
       <c r="AD69" s="19"/>
       <c r="AG69" s="19" t="s">
-        <v>711</v>
+        <v>754</v>
       </c>
       <c r="AQ69" s="19"/>
       <c r="AR69" s="19"/>
@@ -33930,12 +34265,12 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
-      <c r="O70" s="30"/>
+      <c r="O70" s="28"/>
       <c r="AB70" s="19"/>
       <c r="AC70" s="19"/>
       <c r="AD70" s="19"/>
       <c r="AG70" s="19" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="AQ70" s="19"/>
       <c r="AR70" s="19"/>
@@ -33948,12 +34283,12 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0"/>
-      <c r="O71" s="30"/>
+      <c r="O71" s="28"/>
       <c r="AB71" s="19"/>
       <c r="AC71" s="19"/>
       <c r="AD71" s="19"/>
       <c r="AG71" s="19" t="s">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="AQ71" s="19"/>
       <c r="AR71" s="19"/>
@@ -33966,12 +34301,12 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0"/>
-      <c r="O72" s="30"/>
+      <c r="O72" s="28"/>
       <c r="AB72" s="19"/>
       <c r="AC72" s="19"/>
       <c r="AD72" s="19"/>
       <c r="AG72" s="19" t="s">
-        <v>714</v>
+        <v>757</v>
       </c>
       <c r="AQ72" s="19"/>
       <c r="AR72" s="19"/>
@@ -33984,12 +34319,12 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0"/>
-      <c r="O73" s="30"/>
+      <c r="O73" s="28"/>
       <c r="AB73" s="19"/>
       <c r="AC73" s="19"/>
       <c r="AD73" s="19"/>
       <c r="AG73" s="19" t="s">
-        <v>715</v>
+        <v>758</v>
       </c>
       <c r="AQ73" s="19"/>
       <c r="AR73" s="19"/>
@@ -34002,12 +34337,12 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0"/>
-      <c r="O74" s="30"/>
+      <c r="O74" s="28"/>
       <c r="AB74" s="19"/>
       <c r="AC74" s="19"/>
       <c r="AD74" s="19"/>
       <c r="AG74" s="19" t="s">
-        <v>716</v>
+        <v>759</v>
       </c>
       <c r="AQ74" s="19"/>
       <c r="AR74" s="19"/>
@@ -34020,12 +34355,12 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0"/>
-      <c r="O75" s="30"/>
+      <c r="O75" s="28"/>
       <c r="AB75" s="19"/>
       <c r="AC75" s="19"/>
       <c r="AD75" s="19"/>
       <c r="AG75" s="19" t="s">
-        <v>717</v>
+        <v>760</v>
       </c>
       <c r="AQ75" s="19"/>
       <c r="AR75" s="19"/>
@@ -34038,12 +34373,12 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0"/>
-      <c r="O76" s="30"/>
+      <c r="O76" s="28"/>
       <c r="AB76" s="19"/>
       <c r="AC76" s="19"/>
       <c r="AD76" s="19"/>
       <c r="AG76" s="19" t="s">
-        <v>718</v>
+        <v>761</v>
       </c>
       <c r="AQ76" s="19"/>
       <c r="AR76" s="19"/>
@@ -34056,12 +34391,12 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0"/>
-      <c r="O77" s="30"/>
+      <c r="O77" s="28"/>
       <c r="AB77" s="19"/>
       <c r="AC77" s="19"/>
       <c r="AD77" s="19"/>
       <c r="AG77" s="19" t="s">
-        <v>719</v>
+        <v>762</v>
       </c>
       <c r="AQ77" s="19"/>
       <c r="AR77" s="19"/>
@@ -34074,12 +34409,12 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0"/>
-      <c r="O78" s="30"/>
+      <c r="O78" s="28"/>
       <c r="AB78" s="19"/>
       <c r="AC78" s="19"/>
       <c r="AD78" s="19"/>
       <c r="AG78" s="19" t="s">
-        <v>720</v>
+        <v>763</v>
       </c>
       <c r="AQ78" s="19"/>
       <c r="AR78" s="19"/>
@@ -34092,12 +34427,12 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="0"/>
-      <c r="O79" s="30"/>
+      <c r="O79" s="28"/>
       <c r="AB79" s="19"/>
       <c r="AC79" s="19"/>
       <c r="AD79" s="19"/>
       <c r="AG79" s="19" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="AQ79" s="19"/>
       <c r="AR79" s="19"/>
@@ -34110,12 +34445,12 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="0"/>
-      <c r="O80" s="30"/>
+      <c r="O80" s="28"/>
       <c r="AB80" s="19"/>
       <c r="AC80" s="19"/>
       <c r="AD80" s="19"/>
       <c r="AG80" s="19" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="AQ80" s="19"/>
       <c r="AR80" s="19"/>
@@ -34128,12 +34463,12 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0"/>
-      <c r="O81" s="30"/>
+      <c r="O81" s="28"/>
       <c r="AB81" s="19"/>
       <c r="AC81" s="19"/>
       <c r="AD81" s="19"/>
       <c r="AG81" s="19" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
       <c r="AQ81" s="19"/>
       <c r="AR81" s="19"/>
@@ -34146,12 +34481,12 @@
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0"/>
-      <c r="O82" s="30"/>
+      <c r="O82" s="28"/>
       <c r="AB82" s="19"/>
       <c r="AC82" s="19"/>
       <c r="AD82" s="19"/>
       <c r="AG82" s="19" t="s">
-        <v>724</v>
+        <v>767</v>
       </c>
       <c r="AQ82" s="19"/>
       <c r="AR82" s="19"/>
@@ -34164,12 +34499,12 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0"/>
-      <c r="O83" s="30"/>
+      <c r="O83" s="28"/>
       <c r="AB83" s="19"/>
       <c r="AC83" s="19"/>
       <c r="AD83" s="19"/>
       <c r="AG83" s="19" t="s">
-        <v>725</v>
+        <v>768</v>
       </c>
       <c r="AQ83" s="19"/>
       <c r="AR83" s="19"/>
@@ -34182,12 +34517,12 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0"/>
-      <c r="O84" s="30"/>
+      <c r="O84" s="28"/>
       <c r="AB84" s="19"/>
       <c r="AC84" s="19"/>
       <c r="AD84" s="19"/>
       <c r="AG84" s="19" t="s">
-        <v>726</v>
+        <v>769</v>
       </c>
       <c r="AQ84" s="19"/>
       <c r="AR84" s="19"/>
@@ -34200,12 +34535,12 @@
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="0"/>
-      <c r="O85" s="30"/>
+      <c r="O85" s="28"/>
       <c r="AB85" s="19"/>
       <c r="AC85" s="19"/>
       <c r="AD85" s="19"/>
       <c r="AG85" s="19" t="s">
-        <v>727</v>
+        <v>770</v>
       </c>
       <c r="AQ85" s="19"/>
       <c r="AR85" s="19"/>
@@ -34218,12 +34553,12 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="0"/>
-      <c r="O86" s="30"/>
+      <c r="O86" s="28"/>
       <c r="AB86" s="19"/>
       <c r="AC86" s="19"/>
       <c r="AD86" s="19"/>
       <c r="AG86" s="19" t="s">
-        <v>728</v>
+        <v>771</v>
       </c>
       <c r="AQ86" s="19"/>
       <c r="AR86" s="19"/>
@@ -34236,12 +34571,12 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0"/>
-      <c r="O87" s="30"/>
+      <c r="O87" s="28"/>
       <c r="AB87" s="19"/>
       <c r="AC87" s="19"/>
       <c r="AD87" s="19"/>
       <c r="AG87" s="19" t="s">
-        <v>729</v>
+        <v>772</v>
       </c>
       <c r="AQ87" s="19"/>
       <c r="AR87" s="19"/>
@@ -34254,12 +34589,12 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="0"/>
-      <c r="O88" s="30"/>
+      <c r="O88" s="28"/>
       <c r="AB88" s="19"/>
       <c r="AC88" s="19"/>
       <c r="AD88" s="19"/>
       <c r="AG88" s="19" t="s">
-        <v>730</v>
+        <v>773</v>
       </c>
       <c r="AQ88" s="19"/>
       <c r="AR88" s="19"/>
@@ -34272,12 +34607,12 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0"/>
-      <c r="O89" s="30"/>
+      <c r="O89" s="28"/>
       <c r="AB89" s="19"/>
       <c r="AC89" s="19"/>
       <c r="AD89" s="19"/>
       <c r="AG89" s="19" t="s">
-        <v>731</v>
+        <v>774</v>
       </c>
       <c r="AQ89" s="19"/>
       <c r="AR89" s="19"/>
@@ -34290,12 +34625,12 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="0"/>
-      <c r="O90" s="30"/>
+      <c r="O90" s="28"/>
       <c r="AB90" s="19"/>
       <c r="AC90" s="19"/>
       <c r="AD90" s="19"/>
       <c r="AG90" s="19" t="s">
-        <v>732</v>
+        <v>775</v>
       </c>
       <c r="AQ90" s="19"/>
       <c r="AR90" s="19"/>
@@ -34308,12 +34643,12 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="0"/>
-      <c r="O91" s="30"/>
+      <c r="O91" s="28"/>
       <c r="AB91" s="19"/>
       <c r="AC91" s="19"/>
       <c r="AD91" s="19"/>
       <c r="AG91" s="19" t="s">
-        <v>733</v>
+        <v>776</v>
       </c>
       <c r="AQ91" s="19"/>
       <c r="AR91" s="19"/>
@@ -34326,12 +34661,12 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="0"/>
-      <c r="O92" s="30"/>
+      <c r="O92" s="28"/>
       <c r="AB92" s="19"/>
       <c r="AC92" s="19"/>
       <c r="AD92" s="19"/>
       <c r="AG92" s="19" t="s">
-        <v>734</v>
+        <v>777</v>
       </c>
       <c r="AQ92" s="19"/>
       <c r="AR92" s="19"/>
@@ -34344,12 +34679,12 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="0"/>
-      <c r="O93" s="30"/>
+      <c r="O93" s="28"/>
       <c r="AB93" s="19"/>
       <c r="AC93" s="19"/>
       <c r="AD93" s="19"/>
       <c r="AG93" s="19" t="s">
-        <v>735</v>
+        <v>778</v>
       </c>
       <c r="AQ93" s="19"/>
       <c r="AR93" s="19"/>
@@ -34362,7 +34697,7 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="0"/>
-      <c r="O94" s="30"/>
+      <c r="O94" s="28"/>
       <c r="AB94" s="19"/>
       <c r="AC94" s="19"/>
       <c r="AD94" s="19"/>
@@ -34377,7 +34712,7 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="0"/>
-      <c r="O95" s="30"/>
+      <c r="O95" s="28"/>
       <c r="AB95" s="19"/>
       <c r="AC95" s="19"/>
       <c r="AD95" s="19"/>
@@ -34392,7 +34727,7 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="0"/>
-      <c r="O96" s="30"/>
+      <c r="O96" s="28"/>
       <c r="AB96" s="19"/>
       <c r="AC96" s="19"/>
       <c r="AD96" s="19"/>
@@ -34407,7 +34742,7 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="0"/>
-      <c r="O97" s="30"/>
+      <c r="O97" s="28"/>
       <c r="AB97" s="19"/>
       <c r="AC97" s="19"/>
       <c r="AD97" s="19"/>
@@ -34422,7 +34757,7 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="0"/>
-      <c r="O98" s="30"/>
+      <c r="O98" s="28"/>
       <c r="AB98" s="19"/>
       <c r="AC98" s="19"/>
       <c r="AD98" s="19"/>
@@ -34437,7 +34772,7 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="0"/>
-      <c r="O99" s="30"/>
+      <c r="O99" s="28"/>
       <c r="AB99" s="19"/>
       <c r="AC99" s="19"/>
       <c r="AD99" s="19"/>
@@ -34452,7 +34787,7 @@
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="0"/>
-      <c r="O100" s="30"/>
+      <c r="O100" s="28"/>
       <c r="AB100" s="19"/>
       <c r="AC100" s="19"/>
       <c r="AD100" s="19"/>
@@ -34475,7 +34810,7 @@
       <c r="A103" s="0"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AZ100">
+  <conditionalFormatting sqref="A2:DZ200">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -34486,4 +34821,27 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CСтраница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>